--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriana/Desktop/csc-110-textbook-fall2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48129F46-5EE4-B34D-B61A-E5A40425562A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20852C96-CD2C-1E4C-82B9-1B1B5FA0CE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37020" yWindow="2460" windowWidth="27640" windowHeight="16940" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>assessment</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Final Exam</t>
+  </si>
+  <si>
+    <t>Programming Project 7</t>
+  </si>
+  <si>
+    <t>Programming Project 8</t>
+  </si>
+  <si>
+    <t>Programming Project 9</t>
+  </si>
+  <si>
+    <t>Programming Project 10</t>
   </si>
 </sst>
 </file>
@@ -472,16 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFE6EA-9B55-F140-983F-C2D0C0E00B90}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -491,7 +504,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -503,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>45163</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -514,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>45167</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -525,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>45174</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -536,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>45175</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -547,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>45181</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -555,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>45188</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -566,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>45189</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -577,10 +590,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>45195</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -588,10 +601,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>45196</v>
+        <v>45335</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -599,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>45202</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -610,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>45209</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -621,10 +634,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>45210</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -632,10 +645,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>45223</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -643,10 +656,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>45224</v>
+        <v>45350</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -654,10 +667,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>45230</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -665,10 +678,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>45231</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,10 +689,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>45237</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -687,10 +700,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>45238</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,10 +711,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>45244</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -709,10 +722,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>45245</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -720,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>45258</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -731,10 +744,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>45265</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -742,10 +755,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>45266</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -753,10 +766,65 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="C25" s="1">
-        <v>45274</v>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45415</v>
       </c>
     </row>
   </sheetData>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20852C96-CD2C-1E4C-82B9-1B1B5FA0CE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686622DD-B9F1-E949-8A68-B813338AE230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>assessment</t>
   </si>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFE6EA-9B55-F140-983F-C2D0C0E00B90}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>45349</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>45350</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>45363</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>45364</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>45370</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>45377</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>45378</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>45384</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>45385</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>45391</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,61 +769,50 @@
         <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>45392</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
       <c r="C26" s="1">
-        <v>45398</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>45399</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
-        <v>45405</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1">
         <v>45415</v>
       </c>
     </row>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686622DD-B9F1-E949-8A68-B813338AE230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86658CAE-C10B-354D-A544-0DF70AE12921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Module 12 Programming Problems</t>
   </si>
   <si>
-    <t>Programming Project 5</t>
-  </si>
-  <si>
     <t>Module 13 Programming Problems</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Programming Project 10</t>
+  </si>
+  <si>
+    <t>Programming Project 11</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>45329</v>
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>45364</v>
@@ -678,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>45378</v>
@@ -700,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <v>45371</v>
@@ -777,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>45399</v>
@@ -788,7 +788,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>45412</v>
@@ -810,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <v>45415</v>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86658CAE-C10B-354D-A544-0DF70AE12921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49513DD3-424F-8047-B036-BF179EA40C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>assessment</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Module 12 Programming Problems</t>
+  </si>
+  <si>
+    <t>Programming Project 5</t>
   </si>
   <si>
     <t>Module 13 Programming Problems</t>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFE6EA-9B55-F140-983F-C2D0C0E00B90}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>45329</v>
@@ -656,10 +659,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>45364</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -678,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>45378</v>
@@ -700,10 +703,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>45371</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -711,10 +714,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>45384</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -722,10 +725,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>45385</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -733,10 +736,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>45391</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -744,10 +747,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>45392</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -755,10 +758,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>45405</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,53 +769,64 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>45406</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>45399</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>45412</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1">
-        <v>45413</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
         <v>45415</v>
       </c>
     </row>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49513DD3-424F-8047-B036-BF179EA40C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0969F-D3BC-4D4B-A460-8E1E2CE49251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>45371</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0969F-D3BC-4D4B-A460-8E1E2CE49251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD6EA7-E7EE-614F-9773-D8F8CA3DDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>45378</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>45377</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,10 +703,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>45378</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -714,10 +714,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
-        <v>45371</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD6EA7-E7EE-614F-9773-D8F8CA3DDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FE505D-FA8C-1C47-8154-A0BBB3C3285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,10 +769,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>45405</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +780,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>45406</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,10 +791,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
-        <v>45399</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FE505D-FA8C-1C47-8154-A0BBB3C3285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCE80CB-D17B-0343-BB35-C38EE4069D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
+    <workbookView xWindow="34060" yWindow="-200" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>assessment</t>
   </si>
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFE6EA-9B55-F140-983F-C2D0C0E00B90}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>45329</v>
@@ -637,7 +637,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>45343</v>
@@ -648,10 +648,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>45363</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -659,10 +659,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>45364</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,10 +670,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>45370</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,10 +681,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>45371</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>45371</v>
@@ -703,10 +703,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>45377</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -714,10 +714,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>45378</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,10 +725,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>45384</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,10 +736,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>45385</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -747,10 +747,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>45391</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -758,10 +758,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>45392</v>
+        <v>45391</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,10 +769,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>45399</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +780,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>45405</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,10 +791,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>45406</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -802,10 +802,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
-        <v>45412</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -813,10 +813,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>45413</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,9 +824,20 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>45415</v>
       </c>
     </row>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCE80CB-D17B-0343-BB35-C38EE4069D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA805F5-5F36-2F4D-8F4A-1BE48F2A8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34060" yWindow="-200" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
+    <workbookView xWindow="33260" yWindow="-200" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>assessment</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>45307</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>45314</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>45315</v>
@@ -560,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>45321</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>45322</v>
@@ -582,10 +582,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>45328</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -593,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>45329</v>
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>45335</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>45336</v>
@@ -626,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>45342</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>45343</v>
@@ -648,10 +648,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>45343</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>45363</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,10 +670,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>45370</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>45371</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>45371</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,7 +717,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>45377</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,10 +725,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>45378</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,10 +736,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>45384</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -747,10 +747,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>45385</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -758,10 +758,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>45391</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,10 +769,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>45392</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +780,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>45399</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,10 +791,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -802,10 +802,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1">
-        <v>45406</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -813,10 +813,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
-        <v>45412</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,22 +824,15 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>45413</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1">
-        <v>45415</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA805F5-5F36-2F4D-8F4A-1BE48F2A8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD55C5B-6FAD-E648-8550-DAA1D18D6BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33260" yWindow="-200" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>assessment</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Programming Project 10</t>
-  </si>
-  <si>
-    <t>Programming Project 11</t>
   </si>
 </sst>
 </file>
@@ -487,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFE6EA-9B55-F140-983F-C2D0C0E00B90}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,10 +535,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>45309</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -549,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -560,10 +557,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>45316</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -571,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -582,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>45323</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -593,10 +590,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>45329</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -604,10 +601,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -626,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>45337</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -637,10 +634,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>45343</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,10 +645,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>45344</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -659,10 +656,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,10 +667,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>45365</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,10 +678,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,10 +689,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>45373</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,10 +700,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -714,10 +711,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>45379</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,10 +722,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>45385</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>45386</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -747,10 +744,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>45392</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -758,10 +755,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>45393</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,10 +766,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>45399</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +777,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>45400</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,10 +788,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>45406</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -802,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
-        <v>45407</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -813,26 +810,18 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>45413</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31"/>
+      <c r="B30" s="1"/>
+      <c r="C30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD55C5B-6FAD-E648-8550-DAA1D18D6BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71A9C1-BE31-914E-9E35-30E29D7629DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>assessment</t>
   </si>
@@ -89,15 +89,9 @@
     <t>Module 9 Programming Problems</t>
   </si>
   <si>
-    <t>Module 10 Programming Problems</t>
-  </si>
-  <si>
     <t>Module 11 Programming Problems</t>
   </si>
   <si>
-    <t>Module 12 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 5</t>
   </si>
   <si>
@@ -129,6 +123,9 @@
   </si>
   <si>
     <t>Programming Project 10</t>
+  </si>
+  <si>
+    <t>Module 14 Programming Problems</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>45336</v>
@@ -656,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>45365</v>
@@ -678,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>45373</v>
@@ -689,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>45378</v>
@@ -722,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>45386</v>
@@ -733,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>45392</v>
@@ -744,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>45393</v>
@@ -766,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>45400</v>
@@ -777,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>45406</v>
@@ -788,7 +785,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>45407</v>
@@ -799,7 +796,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>45413</v>
@@ -810,7 +807,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
         <v>45415</v>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71A9C1-BE31-914E-9E35-30E29D7629DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B0538-DC79-424E-9C08-90738F8D712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,9 +814,6 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
       <c r="B30" s="1"/>
       <c r="C30"/>
     </row>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B0538-DC79-424E-9C08-90738F8D712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF7CA6D-0578-DE4A-8E64-CB7CE728A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>assessment</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Module 14 Programming Problems</t>
+  </si>
+  <si>
+    <t>Programming Project 11</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFE6EA-9B55-F140-983F-C2D0C0E00B90}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>45343</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,10 +634,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>45344</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -642,10 +645,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>45364</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,10 +656,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>45365</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,10 +667,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>45372</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -675,10 +678,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>45373</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -686,10 +689,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>45378</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,10 +700,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>45379</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,10 +711,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>45385</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,10 +722,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>45386</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>45392</v>
+        <v>45386</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,10 +744,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>45393</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,10 +755,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>45399</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,10 +766,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>45400</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,10 +777,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
-        <v>45406</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,10 +788,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>45407</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>45413</v>
+        <v>45407</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,15 +810,26 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>45415</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="C30"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF7CA6D-0578-DE4A-8E64-CB7CE728A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC01B92-157D-B043-8F69-AAE056F82BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
+    <workbookView xWindow="37300" yWindow="860" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>assessment</t>
   </si>
@@ -129,6 +129,48 @@
   </si>
   <si>
     <t>Programming Project 11</t>
+  </si>
+  <si>
+    <t>Quiz 01</t>
+  </si>
+  <si>
+    <t>Quiz 02</t>
+  </si>
+  <si>
+    <t>Quiz 03</t>
+  </si>
+  <si>
+    <t>Quiz 04</t>
+  </si>
+  <si>
+    <t>Quiz 05</t>
+  </si>
+  <si>
+    <t>Quiz 06</t>
+  </si>
+  <si>
+    <t>Quiz 07</t>
+  </si>
+  <si>
+    <t>Quiz 08</t>
+  </si>
+  <si>
+    <t>Quiz 10</t>
+  </si>
+  <si>
+    <t>Quiz 09</t>
+  </si>
+  <si>
+    <t>Quiz 11</t>
+  </si>
+  <si>
+    <t>Quiz 12</t>
+  </si>
+  <si>
+    <t>Module 10 Programming Problems</t>
+  </si>
+  <si>
+    <t>Module 12 Programming Problems</t>
   </si>
 </sst>
 </file>
@@ -484,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFE6EA-9B55-F140-983F-C2D0C0E00B90}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
-        <v>45303</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -524,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>45308</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -535,10 +577,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>45315</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -546,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>45316</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -557,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
-        <v>45322</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -568,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>45323</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -579,10 +621,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>45329</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -590,10 +632,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
-        <v>45330</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -601,10 +643,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>45336</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -612,10 +654,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>45337</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -623,10 +665,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>45338</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -634,10 +676,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>45343</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>45344</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -656,10 +698,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>45364</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -667,10 +709,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>45365</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -678,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>45372</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,10 +731,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
-        <v>45373</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,10 +742,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>45378</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -711,10 +753,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>45379</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -722,10 +764,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
-        <v>45385</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -733,10 +775,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>45386</v>
+        <v>45364</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -744,10 +786,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>45392</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -755,10 +797,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1">
-        <v>45393</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,10 +808,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
-        <v>45399</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -777,10 +819,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>45400</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,10 +830,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
-        <v>45406</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -799,10 +841,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1">
-        <v>45407</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,10 +852,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
-        <v>45413</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -821,15 +863,158 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C43" s="1">
         <v>45415</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="C44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC01B92-157D-B043-8F69-AAE056F82BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170FFF9C-2986-C74C-A657-89487A4BEA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37300" yWindow="860" windowWidth="30240" windowHeight="18880" xr2:uid="{7D31D848-01AB-0F4E-BA11-99DA0071AD25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>assessment</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Module 12 Programming Problems</t>
+  </si>
+  <si>
+    <t>due_time</t>
+  </si>
+  <si>
+    <t>in class</t>
+  </si>
+  <si>
+    <t>ENR2 N120</t>
+  </si>
+  <si>
+    <t>7pm</t>
   </si>
 </sst>
 </file>
@@ -209,9 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EFE6EA-9B55-F140-983F-C2D0C0E00B90}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,9 +550,10 @@
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -549,8 +563,11 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -560,8 +577,11 @@
       <c r="C2" s="1">
         <v>45301</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -571,8 +591,11 @@
       <c r="C3" s="1">
         <v>45303</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -582,8 +605,11 @@
       <c r="C4" s="1">
         <v>45308</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -593,8 +619,11 @@
       <c r="C5" s="1">
         <v>45308</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -604,8 +633,11 @@
       <c r="C6" s="1">
         <v>45315</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -615,8 +647,11 @@
       <c r="C7" s="1">
         <v>45315</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -626,8 +661,11 @@
       <c r="C8" s="1">
         <v>45316</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -637,8 +675,11 @@
       <c r="C9" s="1">
         <v>45322</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -648,8 +689,11 @@
       <c r="C10" s="1">
         <v>45322</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -659,8 +703,11 @@
       <c r="C11" s="1">
         <v>45323</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -670,8 +717,11 @@
       <c r="C12" s="1">
         <v>45329</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -681,8 +731,11 @@
       <c r="C13" s="1">
         <v>45329</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -692,8 +745,11 @@
       <c r="C14" s="1">
         <v>45330</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -703,8 +759,11 @@
       <c r="C15" s="1">
         <v>45336</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -714,8 +773,11 @@
       <c r="C16" s="1">
         <v>45337</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -725,8 +787,11 @@
       <c r="C17" s="1">
         <v>45338</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -736,8 +801,11 @@
       <c r="C18" s="1">
         <v>45343</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -747,8 +815,11 @@
       <c r="C19" s="1">
         <v>45343</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -758,8 +829,11 @@
       <c r="C20" s="1">
         <v>45344</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -769,8 +843,11 @@
       <c r="C21" s="1">
         <v>45364</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -780,8 +857,11 @@
       <c r="C22" s="1">
         <v>45364</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -791,8 +871,11 @@
       <c r="C23" s="1">
         <v>45365</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -802,8 +885,11 @@
       <c r="C24" s="1">
         <v>45371</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -813,8 +899,11 @@
       <c r="C25" s="1">
         <v>45371</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -824,8 +913,11 @@
       <c r="C26" s="1">
         <v>45372</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -835,8 +927,11 @@
       <c r="C27" s="1">
         <v>45378</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -846,8 +941,11 @@
       <c r="C28" s="1">
         <v>45379</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -857,8 +955,11 @@
       <c r="C29" s="1">
         <v>45385</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -868,8 +969,11 @@
       <c r="C30" s="1">
         <v>45385</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -879,8 +983,11 @@
       <c r="C31" s="1">
         <v>45386</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -890,8 +997,11 @@
       <c r="C32" s="1">
         <v>45392</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -901,8 +1011,11 @@
       <c r="C33" s="1">
         <v>45392</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -912,8 +1025,11 @@
       <c r="C34" s="1">
         <v>45393</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -923,8 +1039,11 @@
       <c r="C35" s="1">
         <v>45399</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -934,8 +1053,11 @@
       <c r="C36" s="1">
         <v>45399</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -945,8 +1067,11 @@
       <c r="C37" s="1">
         <v>45400</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -956,8 +1081,11 @@
       <c r="C38" s="1">
         <v>45406</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -967,8 +1095,11 @@
       <c r="C39" s="1">
         <v>45407</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -978,8 +1109,11 @@
       <c r="C40" s="1">
         <v>45413</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -989,8 +1123,11 @@
       <c r="C41" s="1">
         <v>45413</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1000,8 +1137,11 @@
       <c r="C42" s="1">
         <v>45413</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1011,8 +1151,11 @@
       <c r="C43" s="1">
         <v>45415</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44"/>
     </row>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9x18f2mTy7aUfAo4NDibgGvZdfIXj5aczuzqTR3Iolo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="BwFW4bL4422C6eH3PpBY0OA6l/hmgK8il2ApuNaLzxs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>number</t>
   </si>
@@ -48,30 +48,39 @@
     <t>Module 1 Programming Problems</t>
   </si>
   <si>
+    <t>Module 2 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 1</t>
+  </si>
+  <si>
     <t>Quiz 03</t>
   </si>
   <si>
-    <t>Module 2 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 1</t>
   </si>
   <si>
+    <t>Module 3 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 2</t>
+  </si>
+  <si>
     <t>Quiz 04</t>
   </si>
   <si>
-    <t>Module 3 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 2</t>
   </si>
   <si>
+    <t>Module 4 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 3</t>
+  </si>
+  <si>
     <t>Quiz 05</t>
   </si>
   <si>
-    <t>Module 4 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 3</t>
   </si>
   <si>
@@ -81,33 +90,45 @@
     <t>Module 5 Programming Problems</t>
   </si>
   <si>
+    <t>Short Programming Project 4</t>
+  </si>
+  <si>
     <t>Programming Project 4</t>
   </si>
   <si>
+    <t>Module 6 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 5</t>
+  </si>
+  <si>
     <t>Quiz 06</t>
   </si>
   <si>
-    <t>Module 6 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 5</t>
   </si>
   <si>
+    <t>Module 7 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 6</t>
+  </si>
+  <si>
     <t>Quiz 07</t>
   </si>
   <si>
-    <t>Module 7 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 6</t>
   </si>
   <si>
+    <t>Module 8 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 7</t>
+  </si>
+  <si>
     <t>Quiz 08</t>
   </si>
   <si>
-    <t>Module 8 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 7</t>
   </si>
   <si>
@@ -117,30 +138,39 @@
     <t>Module 9 Programming Problems</t>
   </si>
   <si>
+    <t>Module 10 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 8</t>
+  </si>
+  <si>
     <t>Quiz 09</t>
   </si>
   <si>
-    <t>Module 10 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 8</t>
   </si>
   <si>
+    <t>Module 11 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 9</t>
+  </si>
+  <si>
     <t>Quiz 10</t>
   </si>
   <si>
-    <t>Module 11 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 9</t>
   </si>
   <si>
+    <t>Module 12 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 10</t>
+  </si>
+  <si>
     <t>Quiz 11</t>
   </si>
   <si>
-    <t>Module 12 Programming Problems</t>
-  </si>
-  <si>
     <t>Programming Project 10</t>
   </si>
   <si>
@@ -151,6 +181,9 @@
   </si>
   <si>
     <t>Module 14 Programming Problems</t>
+  </si>
+  <si>
+    <t>Short Programming Project 11</t>
   </si>
   <si>
     <t>Quiz 12</t>
@@ -172,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -187,6 +220,11 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -210,12 +248,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -434,8 +470,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.44"/>
     <col customWidth="1" min="2" max="2" width="29.11"/>
-    <col customWidth="1" min="3" max="4" width="10.78"/>
-    <col customWidth="1" min="5" max="26" width="10.56"/>
+    <col customWidth="1" min="3" max="3" width="10.78"/>
+    <col customWidth="1" min="4" max="26" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -448,7 +484,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -462,7 +498,7 @@
       <c r="C2" s="2">
         <v>45301.0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -476,7 +512,7 @@
       <c r="C3" s="2">
         <v>45303.0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -490,7 +526,7 @@
       <c r="C4" s="2">
         <v>45308.0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -502,9 +538,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45308.0</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>45309.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -516,10 +552,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>45315.0</v>
+        <v>45314.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -530,9 +566,9 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>45315.0</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>45314.0</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -544,10 +580,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>45316.0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>45315.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -558,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>45322.0</v>
+        <v>45316.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -572,9 +608,9 @@
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>45322.0</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>45321.0</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -586,9 +622,9 @@
         <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>45323.0</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>45321.0</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -600,9 +636,9 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45329.0</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>45322.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -614,9 +650,9 @@
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>45329.0</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>45323.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -628,9 +664,9 @@
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>45330.0</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>45328.0</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -642,10 +678,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>45336.0</v>
+        <v>45328.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -656,10 +692,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="2">
-        <v>45337.0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
+        <v>45329.0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -670,9 +706,9 @@
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>45338.0</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>45330.0</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -684,9 +720,9 @@
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>45343.0</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>45336.0</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -698,9 +734,9 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>45343.0</v>
-      </c>
-      <c r="D19" s="4" t="s">
+        <v>45338.0</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -712,9 +748,9 @@
         <v>24</v>
       </c>
       <c r="C20" s="2">
-        <v>45344.0</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>45338.0</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -726,10 +762,10 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>45364.0</v>
+        <v>45341.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -740,9 +776,9 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>45364.0</v>
-      </c>
-      <c r="D22" s="4" t="s">
+        <v>45342.0</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -754,9 +790,9 @@
         <v>27</v>
       </c>
       <c r="C23" s="2">
-        <v>45365.0</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>45342.0</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -768,9 +804,9 @@
         <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>45371.0</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>45343.0</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -782,9 +818,9 @@
         <v>29</v>
       </c>
       <c r="C25" s="2">
-        <v>45371.0</v>
-      </c>
-      <c r="D25" s="4" t="s">
+        <v>45344.0</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -796,9 +832,9 @@
         <v>30</v>
       </c>
       <c r="C26" s="2">
-        <v>45372.0</v>
-      </c>
-      <c r="D26" s="4" t="s">
+        <v>45349.0</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -810,10 +846,10 @@
         <v>31</v>
       </c>
       <c r="C27" s="2">
-        <v>45378.0</v>
+        <v>45349.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -824,10 +860,10 @@
         <v>32</v>
       </c>
       <c r="C28" s="2">
-        <v>45379.0</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
+        <v>45350.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -837,12 +873,13 @@
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="2">
-        <v>45385.0</v>
+      <c r="C29" s="4">
+        <v>45352.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
@@ -852,9 +889,9 @@
         <v>34</v>
       </c>
       <c r="C30" s="2">
-        <v>45385.0</v>
-      </c>
-      <c r="D30" s="4" t="s">
+        <v>45370.0</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -866,9 +903,9 @@
         <v>35</v>
       </c>
       <c r="C31" s="2">
-        <v>45386.0</v>
-      </c>
-      <c r="D31" s="4" t="s">
+        <v>45370.0</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -880,11 +917,12 @@
         <v>36</v>
       </c>
       <c r="C32" s="2">
-        <v>45392.0</v>
-      </c>
-      <c r="D32" s="3" t="s">
+        <v>45371.0</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
@@ -894,9 +932,9 @@
         <v>37</v>
       </c>
       <c r="C33" s="2">
-        <v>45392.0</v>
-      </c>
-      <c r="D33" s="4" t="s">
+        <v>45372.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -908,10 +946,10 @@
         <v>38</v>
       </c>
       <c r="C34" s="2">
-        <v>45393.0</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
+        <v>45378.0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -922,10 +960,10 @@
         <v>39</v>
       </c>
       <c r="C35" s="2">
-        <v>45399.0</v>
+        <v>45379.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -936,9 +974,9 @@
         <v>40</v>
       </c>
       <c r="C36" s="2">
-        <v>45399.0</v>
-      </c>
-      <c r="D36" s="4" t="s">
+        <v>45384.0</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -950,9 +988,9 @@
         <v>41</v>
       </c>
       <c r="C37" s="2">
-        <v>45400.0</v>
-      </c>
-      <c r="D37" s="4" t="s">
+        <v>45384.0</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -964,9 +1002,9 @@
         <v>42</v>
       </c>
       <c r="C38" s="2">
-        <v>45406.0</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>45385.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -978,9 +1016,9 @@
         <v>43</v>
       </c>
       <c r="C39" s="2">
-        <v>45407.0</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>45386.0</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -992,9 +1030,9 @@
         <v>44</v>
       </c>
       <c r="C40" s="2">
-        <v>45413.0</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>45391.0</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1006,10 +1044,10 @@
         <v>45</v>
       </c>
       <c r="C41" s="2">
-        <v>45413.0</v>
+        <v>45391.0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -1020,10 +1058,10 @@
         <v>46</v>
       </c>
       <c r="C42" s="2">
-        <v>45413.0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>7</v>
+        <v>45392.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -1034,3839 +1072,3003 @@
         <v>47</v>
       </c>
       <c r="C43" s="2">
+        <v>45393.0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45398.0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45398.0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45399.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45400.0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45406.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45407.0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45412.0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45412.0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45413.0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45413.0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="2">
         <v>45415.0</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="2"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="C70" s="2"/>
-      <c r="D70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="C71" s="2"/>
-      <c r="D71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="C75" s="2"/>
-      <c r="D75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="C77" s="2"/>
-      <c r="D77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="C78" s="2"/>
-      <c r="D78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="C79" s="2"/>
-      <c r="D79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="C80" s="2"/>
-      <c r="D80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="C83" s="2"/>
-      <c r="D83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="C84" s="2"/>
-      <c r="D84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="C85" s="2"/>
-      <c r="D85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="C91" s="2"/>
-      <c r="D91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="C93" s="2"/>
-      <c r="D93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="C94" s="2"/>
-      <c r="D94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="C95" s="2"/>
-      <c r="D95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="C102" s="2"/>
-      <c r="D102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="C107" s="2"/>
-      <c r="D107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="C108" s="2"/>
-      <c r="D108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="C109" s="2"/>
-      <c r="D109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="C112" s="2"/>
-      <c r="D112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="C113" s="2"/>
-      <c r="D113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="C114" s="2"/>
-      <c r="D114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="C115" s="2"/>
-      <c r="D115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="C116" s="2"/>
-      <c r="D116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="C117" s="2"/>
-      <c r="D117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="C118" s="2"/>
-      <c r="D118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="C119" s="2"/>
-      <c r="D119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="C120" s="2"/>
-      <c r="D120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="C121" s="2"/>
-      <c r="D121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="C122" s="2"/>
-      <c r="D122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="C123" s="2"/>
-      <c r="D123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="C125" s="2"/>
-      <c r="D125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="C126" s="2"/>
-      <c r="D126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="C127" s="2"/>
-      <c r="D127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="C128" s="2"/>
-      <c r="D128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="C130" s="2"/>
-      <c r="D130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="C131" s="2"/>
-      <c r="D131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="C132" s="2"/>
-      <c r="D132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="C133" s="2"/>
-      <c r="D133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="C134" s="2"/>
-      <c r="D134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="C135" s="2"/>
-      <c r="D135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="C136" s="2"/>
-      <c r="D136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="C137" s="2"/>
-      <c r="D137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="C138" s="2"/>
-      <c r="D138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="C139" s="2"/>
-      <c r="D139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="C140" s="2"/>
-      <c r="D140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="C141" s="2"/>
-      <c r="D141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="C142" s="2"/>
-      <c r="D142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="C143" s="2"/>
-      <c r="D143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="C144" s="2"/>
-      <c r="D144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="C145" s="2"/>
-      <c r="D145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="C146" s="2"/>
-      <c r="D146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="C147" s="2"/>
-      <c r="D147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="C148" s="2"/>
-      <c r="D148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="C149" s="2"/>
-      <c r="D149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="C150" s="2"/>
-      <c r="D150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="C151" s="2"/>
-      <c r="D151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="C152" s="2"/>
-      <c r="D152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="C153" s="2"/>
-      <c r="D153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="C154" s="2"/>
-      <c r="D154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="C155" s="2"/>
-      <c r="D155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="C156" s="2"/>
-      <c r="D156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="C157" s="2"/>
-      <c r="D157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="C158" s="2"/>
-      <c r="D158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="C159" s="2"/>
-      <c r="D159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="C160" s="2"/>
-      <c r="D160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="C161" s="2"/>
-      <c r="D161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="C162" s="2"/>
-      <c r="D162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="C163" s="2"/>
-      <c r="D163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="C164" s="2"/>
-      <c r="D164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="C165" s="2"/>
-      <c r="D165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="C166" s="2"/>
-      <c r="D166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="C167" s="2"/>
-      <c r="D167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="C168" s="2"/>
-      <c r="D168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="C169" s="2"/>
-      <c r="D169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="C170" s="2"/>
-      <c r="D170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="C171" s="2"/>
-      <c r="D171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="C172" s="2"/>
-      <c r="D172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="C173" s="2"/>
-      <c r="D173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="C174" s="2"/>
-      <c r="D174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="C175" s="2"/>
-      <c r="D175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="C176" s="2"/>
-      <c r="D176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="C177" s="2"/>
-      <c r="D177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="C178" s="2"/>
-      <c r="D178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="C179" s="2"/>
-      <c r="D179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="C180" s="2"/>
-      <c r="D180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="C181" s="2"/>
-      <c r="D181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="C182" s="2"/>
-      <c r="D182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="C183" s="2"/>
-      <c r="D183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="C184" s="2"/>
-      <c r="D184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="C185" s="2"/>
-      <c r="D185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="C186" s="2"/>
-      <c r="D186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="C187" s="2"/>
-      <c r="D187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="C188" s="2"/>
-      <c r="D188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="C189" s="2"/>
-      <c r="D189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="C190" s="2"/>
-      <c r="D190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="C191" s="2"/>
-      <c r="D191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="C192" s="2"/>
-      <c r="D192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="C193" s="2"/>
-      <c r="D193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="C194" s="2"/>
-      <c r="D194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="C195" s="2"/>
-      <c r="D195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="C196" s="2"/>
-      <c r="D196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="C197" s="2"/>
-      <c r="D197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="C198" s="2"/>
-      <c r="D198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="C199" s="2"/>
-      <c r="D199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="C200" s="2"/>
-      <c r="D200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="C201" s="2"/>
-      <c r="D201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="C202" s="2"/>
-      <c r="D202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="C203" s="2"/>
-      <c r="D203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="C204" s="2"/>
-      <c r="D204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="C205" s="2"/>
-      <c r="D205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="C206" s="2"/>
-      <c r="D206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="C207" s="2"/>
-      <c r="D207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="C208" s="2"/>
-      <c r="D208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="C209" s="2"/>
-      <c r="D209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="C210" s="2"/>
-      <c r="D210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="C211" s="2"/>
-      <c r="D211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="C212" s="2"/>
-      <c r="D212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="C213" s="2"/>
-      <c r="D213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="C214" s="2"/>
-      <c r="D214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="C215" s="2"/>
-      <c r="D215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="C216" s="2"/>
-      <c r="D216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="C217" s="2"/>
-      <c r="D217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="C218" s="2"/>
-      <c r="D218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="C219" s="2"/>
-      <c r="D219" s="3"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="C220" s="2"/>
-      <c r="D220" s="3"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="C221" s="2"/>
-      <c r="D221" s="3"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="C222" s="2"/>
-      <c r="D222" s="3"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="C223" s="2"/>
-      <c r="D223" s="3"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="C224" s="2"/>
-      <c r="D224" s="3"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="C225" s="2"/>
-      <c r="D225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="C226" s="2"/>
-      <c r="D226" s="3"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="C227" s="2"/>
-      <c r="D227" s="3"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="C228" s="2"/>
-      <c r="D228" s="3"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="C229" s="2"/>
-      <c r="D229" s="3"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="C230" s="2"/>
-      <c r="D230" s="3"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="C231" s="2"/>
-      <c r="D231" s="3"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="C232" s="2"/>
-      <c r="D232" s="3"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="C233" s="2"/>
-      <c r="D233" s="3"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="C234" s="2"/>
-      <c r="D234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="C235" s="2"/>
-      <c r="D235" s="3"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="C236" s="2"/>
-      <c r="D236" s="3"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="C237" s="2"/>
-      <c r="D237" s="3"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="C238" s="2"/>
-      <c r="D238" s="3"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="C239" s="2"/>
-      <c r="D239" s="3"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="C240" s="2"/>
-      <c r="D240" s="3"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="C241" s="2"/>
-      <c r="D241" s="3"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="C242" s="2"/>
-      <c r="D242" s="3"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="C243" s="2"/>
-      <c r="D243" s="3"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="C244" s="2"/>
-      <c r="D244" s="3"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="C245" s="2"/>
-      <c r="D245" s="3"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="C246" s="2"/>
-      <c r="D246" s="3"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="C247" s="2"/>
-      <c r="D247" s="3"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="C248" s="2"/>
-      <c r="D248" s="3"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="C249" s="2"/>
-      <c r="D249" s="3"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="C250" s="2"/>
-      <c r="D250" s="3"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="C251" s="2"/>
-      <c r="D251" s="3"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="C252" s="2"/>
-      <c r="D252" s="3"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="C253" s="2"/>
-      <c r="D253" s="3"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="C254" s="2"/>
-      <c r="D254" s="3"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="C255" s="2"/>
-      <c r="D255" s="3"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="C256" s="2"/>
-      <c r="D256" s="3"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="C257" s="2"/>
-      <c r="D257" s="3"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="C258" s="2"/>
-      <c r="D258" s="3"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="C259" s="2"/>
-      <c r="D259" s="3"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="C260" s="2"/>
-      <c r="D260" s="3"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="C261" s="2"/>
-      <c r="D261" s="3"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="C262" s="2"/>
-      <c r="D262" s="3"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="C263" s="2"/>
-      <c r="D263" s="3"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="C264" s="2"/>
-      <c r="D264" s="3"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="C265" s="2"/>
-      <c r="D265" s="3"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="C266" s="2"/>
-      <c r="D266" s="3"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="C267" s="2"/>
-      <c r="D267" s="3"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="C268" s="2"/>
-      <c r="D268" s="3"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="C269" s="2"/>
-      <c r="D269" s="3"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="C270" s="2"/>
-      <c r="D270" s="3"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="C271" s="2"/>
-      <c r="D271" s="3"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="C272" s="2"/>
-      <c r="D272" s="3"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="C273" s="2"/>
-      <c r="D273" s="3"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="C274" s="2"/>
-      <c r="D274" s="3"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="C275" s="2"/>
-      <c r="D275" s="3"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="C276" s="2"/>
-      <c r="D276" s="3"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="C277" s="2"/>
-      <c r="D277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="C278" s="2"/>
-      <c r="D278" s="3"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="C279" s="2"/>
-      <c r="D279" s="3"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="C280" s="2"/>
-      <c r="D280" s="3"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="C281" s="2"/>
-      <c r="D281" s="3"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="C282" s="2"/>
-      <c r="D282" s="3"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="C283" s="2"/>
-      <c r="D283" s="3"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="C284" s="2"/>
-      <c r="D284" s="3"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="C285" s="2"/>
-      <c r="D285" s="3"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="C286" s="2"/>
-      <c r="D286" s="3"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="C287" s="2"/>
-      <c r="D287" s="3"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="C288" s="2"/>
-      <c r="D288" s="3"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="C289" s="2"/>
-      <c r="D289" s="3"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="C290" s="2"/>
-      <c r="D290" s="3"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="C291" s="2"/>
-      <c r="D291" s="3"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="C292" s="2"/>
-      <c r="D292" s="3"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="C293" s="2"/>
-      <c r="D293" s="3"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="C294" s="2"/>
-      <c r="D294" s="3"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="C295" s="2"/>
-      <c r="D295" s="3"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="C296" s="2"/>
-      <c r="D296" s="3"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="C297" s="2"/>
-      <c r="D297" s="3"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="C298" s="2"/>
-      <c r="D298" s="3"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="C299" s="2"/>
-      <c r="D299" s="3"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="C300" s="2"/>
-      <c r="D300" s="3"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="C301" s="2"/>
-      <c r="D301" s="3"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="C302" s="2"/>
-      <c r="D302" s="3"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="C303" s="2"/>
-      <c r="D303" s="3"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="C304" s="2"/>
-      <c r="D304" s="3"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="C305" s="2"/>
-      <c r="D305" s="3"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="C306" s="2"/>
-      <c r="D306" s="3"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="C307" s="2"/>
-      <c r="D307" s="3"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="C308" s="2"/>
-      <c r="D308" s="3"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="C309" s="2"/>
-      <c r="D309" s="3"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="C310" s="2"/>
-      <c r="D310" s="3"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="C311" s="2"/>
-      <c r="D311" s="3"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="C312" s="2"/>
-      <c r="D312" s="3"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="C313" s="2"/>
-      <c r="D313" s="3"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="C314" s="2"/>
-      <c r="D314" s="3"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="C315" s="2"/>
-      <c r="D315" s="3"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="C316" s="2"/>
-      <c r="D316" s="3"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="C317" s="2"/>
-      <c r="D317" s="3"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="C318" s="2"/>
-      <c r="D318" s="3"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="C319" s="2"/>
-      <c r="D319" s="3"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="C320" s="2"/>
-      <c r="D320" s="3"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="C321" s="2"/>
-      <c r="D321" s="3"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="C322" s="2"/>
-      <c r="D322" s="3"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="C323" s="2"/>
-      <c r="D323" s="3"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="C324" s="2"/>
-      <c r="D324" s="3"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="C325" s="2"/>
-      <c r="D325" s="3"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="C326" s="2"/>
-      <c r="D326" s="3"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="C327" s="2"/>
-      <c r="D327" s="3"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="C328" s="2"/>
-      <c r="D328" s="3"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="C329" s="2"/>
-      <c r="D329" s="3"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="C330" s="2"/>
-      <c r="D330" s="3"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="C331" s="2"/>
-      <c r="D331" s="3"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="C332" s="2"/>
-      <c r="D332" s="3"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="C333" s="2"/>
-      <c r="D333" s="3"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="C334" s="2"/>
-      <c r="D334" s="3"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="C335" s="2"/>
-      <c r="D335" s="3"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="C336" s="2"/>
-      <c r="D336" s="3"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="C337" s="2"/>
-      <c r="D337" s="3"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="C338" s="2"/>
-      <c r="D338" s="3"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="C339" s="2"/>
-      <c r="D339" s="3"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="C340" s="2"/>
-      <c r="D340" s="3"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="C341" s="2"/>
-      <c r="D341" s="3"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="C342" s="2"/>
-      <c r="D342" s="3"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="C343" s="2"/>
-      <c r="D343" s="3"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="C344" s="2"/>
-      <c r="D344" s="3"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="C345" s="2"/>
-      <c r="D345" s="3"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="C346" s="2"/>
-      <c r="D346" s="3"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="C347" s="2"/>
-      <c r="D347" s="3"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="C348" s="2"/>
-      <c r="D348" s="3"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="C349" s="2"/>
-      <c r="D349" s="3"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="C350" s="2"/>
-      <c r="D350" s="3"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="C351" s="2"/>
-      <c r="D351" s="3"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="C352" s="2"/>
-      <c r="D352" s="3"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="C353" s="2"/>
-      <c r="D353" s="3"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="C354" s="2"/>
-      <c r="D354" s="3"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="C355" s="2"/>
-      <c r="D355" s="3"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="C356" s="2"/>
-      <c r="D356" s="3"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="C357" s="2"/>
-      <c r="D357" s="3"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="C358" s="2"/>
-      <c r="D358" s="3"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="C359" s="2"/>
-      <c r="D359" s="3"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="C360" s="2"/>
-      <c r="D360" s="3"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="C361" s="2"/>
-      <c r="D361" s="3"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="C362" s="2"/>
-      <c r="D362" s="3"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="C363" s="2"/>
-      <c r="D363" s="3"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="C364" s="2"/>
-      <c r="D364" s="3"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="C365" s="2"/>
-      <c r="D365" s="3"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="C366" s="2"/>
-      <c r="D366" s="3"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="C367" s="2"/>
-      <c r="D367" s="3"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="C368" s="2"/>
-      <c r="D368" s="3"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="C369" s="2"/>
-      <c r="D369" s="3"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="C370" s="2"/>
-      <c r="D370" s="3"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="C371" s="2"/>
-      <c r="D371" s="3"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="C372" s="2"/>
-      <c r="D372" s="3"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="C373" s="2"/>
-      <c r="D373" s="3"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="C374" s="2"/>
-      <c r="D374" s="3"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="C375" s="2"/>
-      <c r="D375" s="3"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="C376" s="2"/>
-      <c r="D376" s="3"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="C377" s="2"/>
-      <c r="D377" s="3"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="C378" s="2"/>
-      <c r="D378" s="3"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="C379" s="2"/>
-      <c r="D379" s="3"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="C380" s="2"/>
-      <c r="D380" s="3"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="C381" s="2"/>
-      <c r="D381" s="3"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="C382" s="2"/>
-      <c r="D382" s="3"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="C383" s="2"/>
-      <c r="D383" s="3"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="C384" s="2"/>
-      <c r="D384" s="3"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="C385" s="2"/>
-      <c r="D385" s="3"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="C386" s="2"/>
-      <c r="D386" s="3"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="C387" s="2"/>
-      <c r="D387" s="3"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="C388" s="2"/>
-      <c r="D388" s="3"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="C389" s="2"/>
-      <c r="D389" s="3"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="C390" s="2"/>
-      <c r="D390" s="3"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="C391" s="2"/>
-      <c r="D391" s="3"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="C392" s="2"/>
-      <c r="D392" s="3"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="C393" s="2"/>
-      <c r="D393" s="3"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="C394" s="2"/>
-      <c r="D394" s="3"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="C395" s="2"/>
-      <c r="D395" s="3"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="C396" s="2"/>
-      <c r="D396" s="3"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="C397" s="2"/>
-      <c r="D397" s="3"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="C398" s="2"/>
-      <c r="D398" s="3"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="C399" s="2"/>
-      <c r="D399" s="3"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="C400" s="2"/>
-      <c r="D400" s="3"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="C401" s="2"/>
-      <c r="D401" s="3"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="C402" s="2"/>
-      <c r="D402" s="3"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="C403" s="2"/>
-      <c r="D403" s="3"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="C404" s="2"/>
-      <c r="D404" s="3"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="C405" s="2"/>
-      <c r="D405" s="3"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="C406" s="2"/>
-      <c r="D406" s="3"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="C407" s="2"/>
-      <c r="D407" s="3"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="C408" s="2"/>
-      <c r="D408" s="3"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="C409" s="2"/>
-      <c r="D409" s="3"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="C410" s="2"/>
-      <c r="D410" s="3"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="C411" s="2"/>
-      <c r="D411" s="3"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="C412" s="2"/>
-      <c r="D412" s="3"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="C413" s="2"/>
-      <c r="D413" s="3"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="C414" s="2"/>
-      <c r="D414" s="3"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="C415" s="2"/>
-      <c r="D415" s="3"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="C416" s="2"/>
-      <c r="D416" s="3"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="C417" s="2"/>
-      <c r="D417" s="3"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="C418" s="2"/>
-      <c r="D418" s="3"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="C419" s="2"/>
-      <c r="D419" s="3"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="C420" s="2"/>
-      <c r="D420" s="3"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="C421" s="2"/>
-      <c r="D421" s="3"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="C422" s="2"/>
-      <c r="D422" s="3"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="C423" s="2"/>
-      <c r="D423" s="3"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="C424" s="2"/>
-      <c r="D424" s="3"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="C425" s="2"/>
-      <c r="D425" s="3"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="C426" s="2"/>
-      <c r="D426" s="3"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="C427" s="2"/>
-      <c r="D427" s="3"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="C428" s="2"/>
-      <c r="D428" s="3"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="C429" s="2"/>
-      <c r="D429" s="3"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="C430" s="2"/>
-      <c r="D430" s="3"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="C431" s="2"/>
-      <c r="D431" s="3"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="C432" s="2"/>
-      <c r="D432" s="3"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="C433" s="2"/>
-      <c r="D433" s="3"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="C434" s="2"/>
-      <c r="D434" s="3"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="C435" s="2"/>
-      <c r="D435" s="3"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="C436" s="2"/>
-      <c r="D436" s="3"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="C437" s="2"/>
-      <c r="D437" s="3"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="C438" s="2"/>
-      <c r="D438" s="3"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="C439" s="2"/>
-      <c r="D439" s="3"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="C440" s="2"/>
-      <c r="D440" s="3"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="C441" s="2"/>
-      <c r="D441" s="3"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="C442" s="2"/>
-      <c r="D442" s="3"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="C443" s="2"/>
-      <c r="D443" s="3"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="C444" s="2"/>
-      <c r="D444" s="3"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="C445" s="2"/>
-      <c r="D445" s="3"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="C446" s="2"/>
-      <c r="D446" s="3"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="C447" s="2"/>
-      <c r="D447" s="3"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="C448" s="2"/>
-      <c r="D448" s="3"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="C449" s="2"/>
-      <c r="D449" s="3"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="C450" s="2"/>
-      <c r="D450" s="3"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="C451" s="2"/>
-      <c r="D451" s="3"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="C452" s="2"/>
-      <c r="D452" s="3"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="C453" s="2"/>
-      <c r="D453" s="3"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="C454" s="2"/>
-      <c r="D454" s="3"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="C455" s="2"/>
-      <c r="D455" s="3"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="C456" s="2"/>
-      <c r="D456" s="3"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="C457" s="2"/>
-      <c r="D457" s="3"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="C458" s="2"/>
-      <c r="D458" s="3"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="C459" s="2"/>
-      <c r="D459" s="3"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="C460" s="2"/>
-      <c r="D460" s="3"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="C461" s="2"/>
-      <c r="D461" s="3"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="C462" s="2"/>
-      <c r="D462" s="3"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="C463" s="2"/>
-      <c r="D463" s="3"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="C464" s="2"/>
-      <c r="D464" s="3"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="C465" s="2"/>
-      <c r="D465" s="3"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="C466" s="2"/>
-      <c r="D466" s="3"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="C467" s="2"/>
-      <c r="D467" s="3"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="C468" s="2"/>
-      <c r="D468" s="3"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="C469" s="2"/>
-      <c r="D469" s="3"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="C470" s="2"/>
-      <c r="D470" s="3"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="C471" s="2"/>
-      <c r="D471" s="3"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="C472" s="2"/>
-      <c r="D472" s="3"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="C473" s="2"/>
-      <c r="D473" s="3"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="C474" s="2"/>
-      <c r="D474" s="3"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="C475" s="2"/>
-      <c r="D475" s="3"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="C476" s="2"/>
-      <c r="D476" s="3"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="C477" s="2"/>
-      <c r="D477" s="3"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="C478" s="2"/>
-      <c r="D478" s="3"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="C479" s="2"/>
-      <c r="D479" s="3"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="C480" s="2"/>
-      <c r="D480" s="3"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="C481" s="2"/>
-      <c r="D481" s="3"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="C482" s="2"/>
-      <c r="D482" s="3"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="C483" s="2"/>
-      <c r="D483" s="3"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="C484" s="2"/>
-      <c r="D484" s="3"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="C485" s="2"/>
-      <c r="D485" s="3"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="C486" s="2"/>
-      <c r="D486" s="3"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="C487" s="2"/>
-      <c r="D487" s="3"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="C488" s="2"/>
-      <c r="D488" s="3"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="C489" s="2"/>
-      <c r="D489" s="3"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="C490" s="2"/>
-      <c r="D490" s="3"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="C491" s="2"/>
-      <c r="D491" s="3"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="C492" s="2"/>
-      <c r="D492" s="3"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="C493" s="2"/>
-      <c r="D493" s="3"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="C494" s="2"/>
-      <c r="D494" s="3"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="C495" s="2"/>
-      <c r="D495" s="3"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="C496" s="2"/>
-      <c r="D496" s="3"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="C497" s="2"/>
-      <c r="D497" s="3"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="C498" s="2"/>
-      <c r="D498" s="3"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="C499" s="2"/>
-      <c r="D499" s="3"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="C500" s="2"/>
-      <c r="D500" s="3"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="C501" s="2"/>
-      <c r="D501" s="3"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="C502" s="2"/>
-      <c r="D502" s="3"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="C503" s="2"/>
-      <c r="D503" s="3"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="C504" s="2"/>
-      <c r="D504" s="3"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="C505" s="2"/>
-      <c r="D505" s="3"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="C506" s="2"/>
-      <c r="D506" s="3"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="C507" s="2"/>
-      <c r="D507" s="3"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="C508" s="2"/>
-      <c r="D508" s="3"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="C509" s="2"/>
-      <c r="D509" s="3"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="C510" s="2"/>
-      <c r="D510" s="3"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="C511" s="2"/>
-      <c r="D511" s="3"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="C512" s="2"/>
-      <c r="D512" s="3"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="C513" s="2"/>
-      <c r="D513" s="3"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="C514" s="2"/>
-      <c r="D514" s="3"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="C515" s="2"/>
-      <c r="D515" s="3"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="C516" s="2"/>
-      <c r="D516" s="3"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="C517" s="2"/>
-      <c r="D517" s="3"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="C518" s="2"/>
-      <c r="D518" s="3"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="C519" s="2"/>
-      <c r="D519" s="3"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="C520" s="2"/>
-      <c r="D520" s="3"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="C521" s="2"/>
-      <c r="D521" s="3"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="C522" s="2"/>
-      <c r="D522" s="3"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="C523" s="2"/>
-      <c r="D523" s="3"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="C524" s="2"/>
-      <c r="D524" s="3"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="C525" s="2"/>
-      <c r="D525" s="3"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="C526" s="2"/>
-      <c r="D526" s="3"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="C527" s="2"/>
-      <c r="D527" s="3"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="C528" s="2"/>
-      <c r="D528" s="3"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="C529" s="2"/>
-      <c r="D529" s="3"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="C530" s="2"/>
-      <c r="D530" s="3"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="C531" s="2"/>
-      <c r="D531" s="3"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="C532" s="2"/>
-      <c r="D532" s="3"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="C533" s="2"/>
-      <c r="D533" s="3"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="C534" s="2"/>
-      <c r="D534" s="3"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="C535" s="2"/>
-      <c r="D535" s="3"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="C536" s="2"/>
-      <c r="D536" s="3"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="C537" s="2"/>
-      <c r="D537" s="3"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="C538" s="2"/>
-      <c r="D538" s="3"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="C539" s="2"/>
-      <c r="D539" s="3"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="C540" s="2"/>
-      <c r="D540" s="3"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="C541" s="2"/>
-      <c r="D541" s="3"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="C542" s="2"/>
-      <c r="D542" s="3"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="C543" s="2"/>
-      <c r="D543" s="3"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="C544" s="2"/>
-      <c r="D544" s="3"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="C545" s="2"/>
-      <c r="D545" s="3"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="C546" s="2"/>
-      <c r="D546" s="3"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="C547" s="2"/>
-      <c r="D547" s="3"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="C548" s="2"/>
-      <c r="D548" s="3"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="C549" s="2"/>
-      <c r="D549" s="3"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="C550" s="2"/>
-      <c r="D550" s="3"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="C551" s="2"/>
-      <c r="D551" s="3"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="C552" s="2"/>
-      <c r="D552" s="3"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="C553" s="2"/>
-      <c r="D553" s="3"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="C554" s="2"/>
-      <c r="D554" s="3"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="C555" s="2"/>
-      <c r="D555" s="3"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="C556" s="2"/>
-      <c r="D556" s="3"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="C557" s="2"/>
-      <c r="D557" s="3"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="C558" s="2"/>
-      <c r="D558" s="3"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="C559" s="2"/>
-      <c r="D559" s="3"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="C560" s="2"/>
-      <c r="D560" s="3"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="C561" s="2"/>
-      <c r="D561" s="3"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="C562" s="2"/>
-      <c r="D562" s="3"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="C563" s="2"/>
-      <c r="D563" s="3"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="C564" s="2"/>
-      <c r="D564" s="3"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="C565" s="2"/>
-      <c r="D565" s="3"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="C566" s="2"/>
-      <c r="D566" s="3"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="C567" s="2"/>
-      <c r="D567" s="3"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="C568" s="2"/>
-      <c r="D568" s="3"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="C569" s="2"/>
-      <c r="D569" s="3"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="C570" s="2"/>
-      <c r="D570" s="3"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="C571" s="2"/>
-      <c r="D571" s="3"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="C572" s="2"/>
-      <c r="D572" s="3"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="C573" s="2"/>
-      <c r="D573" s="3"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="C574" s="2"/>
-      <c r="D574" s="3"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="C575" s="2"/>
-      <c r="D575" s="3"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="C576" s="2"/>
-      <c r="D576" s="3"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="C577" s="2"/>
-      <c r="D577" s="3"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="C578" s="2"/>
-      <c r="D578" s="3"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="C579" s="2"/>
-      <c r="D579" s="3"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="C580" s="2"/>
-      <c r="D580" s="3"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="C581" s="2"/>
-      <c r="D581" s="3"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="C582" s="2"/>
-      <c r="D582" s="3"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="C583" s="2"/>
-      <c r="D583" s="3"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="C584" s="2"/>
-      <c r="D584" s="3"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="C585" s="2"/>
-      <c r="D585" s="3"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="C586" s="2"/>
-      <c r="D586" s="3"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="C587" s="2"/>
-      <c r="D587" s="3"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="C588" s="2"/>
-      <c r="D588" s="3"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="C589" s="2"/>
-      <c r="D589" s="3"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="C590" s="2"/>
-      <c r="D590" s="3"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="C591" s="2"/>
-      <c r="D591" s="3"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="C592" s="2"/>
-      <c r="D592" s="3"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="C593" s="2"/>
-      <c r="D593" s="3"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="C594" s="2"/>
-      <c r="D594" s="3"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="C595" s="2"/>
-      <c r="D595" s="3"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="C596" s="2"/>
-      <c r="D596" s="3"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="C597" s="2"/>
-      <c r="D597" s="3"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="C598" s="2"/>
-      <c r="D598" s="3"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="C599" s="2"/>
-      <c r="D599" s="3"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="C600" s="2"/>
-      <c r="D600" s="3"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="C601" s="2"/>
-      <c r="D601" s="3"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="C602" s="2"/>
-      <c r="D602" s="3"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="C603" s="2"/>
-      <c r="D603" s="3"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="C604" s="2"/>
-      <c r="D604" s="3"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="C605" s="2"/>
-      <c r="D605" s="3"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="C606" s="2"/>
-      <c r="D606" s="3"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="C607" s="2"/>
-      <c r="D607" s="3"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="C608" s="2"/>
-      <c r="D608" s="3"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="C609" s="2"/>
-      <c r="D609" s="3"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="C610" s="2"/>
-      <c r="D610" s="3"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="C611" s="2"/>
-      <c r="D611" s="3"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="C612" s="2"/>
-      <c r="D612" s="3"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="C613" s="2"/>
-      <c r="D613" s="3"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="C614" s="2"/>
-      <c r="D614" s="3"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="C615" s="2"/>
-      <c r="D615" s="3"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="C616" s="2"/>
-      <c r="D616" s="3"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="C617" s="2"/>
-      <c r="D617" s="3"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="C618" s="2"/>
-      <c r="D618" s="3"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="C619" s="2"/>
-      <c r="D619" s="3"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="C620" s="2"/>
-      <c r="D620" s="3"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="C621" s="2"/>
-      <c r="D621" s="3"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="C622" s="2"/>
-      <c r="D622" s="3"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="C623" s="2"/>
-      <c r="D623" s="3"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="C624" s="2"/>
-      <c r="D624" s="3"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="C625" s="2"/>
-      <c r="D625" s="3"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="C626" s="2"/>
-      <c r="D626" s="3"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="C627" s="2"/>
-      <c r="D627" s="3"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="C628" s="2"/>
-      <c r="D628" s="3"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="C629" s="2"/>
-      <c r="D629" s="3"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="C630" s="2"/>
-      <c r="D630" s="3"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="C631" s="2"/>
-      <c r="D631" s="3"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="C632" s="2"/>
-      <c r="D632" s="3"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="C633" s="2"/>
-      <c r="D633" s="3"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="C634" s="2"/>
-      <c r="D634" s="3"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="C635" s="2"/>
-      <c r="D635" s="3"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="C636" s="2"/>
-      <c r="D636" s="3"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="C637" s="2"/>
-      <c r="D637" s="3"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="C638" s="2"/>
-      <c r="D638" s="3"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="C639" s="2"/>
-      <c r="D639" s="3"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="C640" s="2"/>
-      <c r="D640" s="3"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="C641" s="2"/>
-      <c r="D641" s="3"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="C642" s="2"/>
-      <c r="D642" s="3"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="C643" s="2"/>
-      <c r="D643" s="3"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="C644" s="2"/>
-      <c r="D644" s="3"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="C645" s="2"/>
-      <c r="D645" s="3"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="C646" s="2"/>
-      <c r="D646" s="3"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="C647" s="2"/>
-      <c r="D647" s="3"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="C648" s="2"/>
-      <c r="D648" s="3"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="C649" s="2"/>
-      <c r="D649" s="3"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="C650" s="2"/>
-      <c r="D650" s="3"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="C651" s="2"/>
-      <c r="D651" s="3"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="C652" s="2"/>
-      <c r="D652" s="3"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="C653" s="2"/>
-      <c r="D653" s="3"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="C654" s="2"/>
-      <c r="D654" s="3"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="C655" s="2"/>
-      <c r="D655" s="3"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="C656" s="2"/>
-      <c r="D656" s="3"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="C657" s="2"/>
-      <c r="D657" s="3"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="C658" s="2"/>
-      <c r="D658" s="3"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="C659" s="2"/>
-      <c r="D659" s="3"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="C660" s="2"/>
-      <c r="D660" s="3"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="C661" s="2"/>
-      <c r="D661" s="3"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="C662" s="2"/>
-      <c r="D662" s="3"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="C663" s="2"/>
-      <c r="D663" s="3"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="C664" s="2"/>
-      <c r="D664" s="3"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="C665" s="2"/>
-      <c r="D665" s="3"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="C666" s="2"/>
-      <c r="D666" s="3"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="C667" s="2"/>
-      <c r="D667" s="3"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="C668" s="2"/>
-      <c r="D668" s="3"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="C669" s="2"/>
-      <c r="D669" s="3"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="C670" s="2"/>
-      <c r="D670" s="3"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="C671" s="2"/>
-      <c r="D671" s="3"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="C672" s="2"/>
-      <c r="D672" s="3"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="C673" s="2"/>
-      <c r="D673" s="3"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="C674" s="2"/>
-      <c r="D674" s="3"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="C675" s="2"/>
-      <c r="D675" s="3"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="C676" s="2"/>
-      <c r="D676" s="3"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="C677" s="2"/>
-      <c r="D677" s="3"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="C678" s="2"/>
-      <c r="D678" s="3"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="C679" s="2"/>
-      <c r="D679" s="3"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="C680" s="2"/>
-      <c r="D680" s="3"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="C681" s="2"/>
-      <c r="D681" s="3"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="C682" s="2"/>
-      <c r="D682" s="3"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="C683" s="2"/>
-      <c r="D683" s="3"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="C684" s="2"/>
-      <c r="D684" s="3"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="C685" s="2"/>
-      <c r="D685" s="3"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="C686" s="2"/>
-      <c r="D686" s="3"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="C687" s="2"/>
-      <c r="D687" s="3"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="C688" s="2"/>
-      <c r="D688" s="3"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="C689" s="2"/>
-      <c r="D689" s="3"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="C690" s="2"/>
-      <c r="D690" s="3"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="C691" s="2"/>
-      <c r="D691" s="3"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="C692" s="2"/>
-      <c r="D692" s="3"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="C693" s="2"/>
-      <c r="D693" s="3"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="C694" s="2"/>
-      <c r="D694" s="3"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="C695" s="2"/>
-      <c r="D695" s="3"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="C696" s="2"/>
-      <c r="D696" s="3"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="C697" s="2"/>
-      <c r="D697" s="3"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="C698" s="2"/>
-      <c r="D698" s="3"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="C699" s="2"/>
-      <c r="D699" s="3"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="C700" s="2"/>
-      <c r="D700" s="3"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="C701" s="2"/>
-      <c r="D701" s="3"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="C702" s="2"/>
-      <c r="D702" s="3"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="C703" s="2"/>
-      <c r="D703" s="3"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="C704" s="2"/>
-      <c r="D704" s="3"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="C705" s="2"/>
-      <c r="D705" s="3"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="C706" s="2"/>
-      <c r="D706" s="3"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="C707" s="2"/>
-      <c r="D707" s="3"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="C708" s="2"/>
-      <c r="D708" s="3"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="C709" s="2"/>
-      <c r="D709" s="3"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="C710" s="2"/>
-      <c r="D710" s="3"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="C711" s="2"/>
-      <c r="D711" s="3"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="C712" s="2"/>
-      <c r="D712" s="3"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="C713" s="2"/>
-      <c r="D713" s="3"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="C714" s="2"/>
-      <c r="D714" s="3"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="C715" s="2"/>
-      <c r="D715" s="3"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="C716" s="2"/>
-      <c r="D716" s="3"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="C717" s="2"/>
-      <c r="D717" s="3"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="C718" s="2"/>
-      <c r="D718" s="3"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="C719" s="2"/>
-      <c r="D719" s="3"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="C720" s="2"/>
-      <c r="D720" s="3"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="C721" s="2"/>
-      <c r="D721" s="3"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="C722" s="2"/>
-      <c r="D722" s="3"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="C723" s="2"/>
-      <c r="D723" s="3"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="C724" s="2"/>
-      <c r="D724" s="3"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="C725" s="2"/>
-      <c r="D725" s="3"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="C726" s="2"/>
-      <c r="D726" s="3"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="C727" s="2"/>
-      <c r="D727" s="3"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="C728" s="2"/>
-      <c r="D728" s="3"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="C729" s="2"/>
-      <c r="D729" s="3"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="C730" s="2"/>
-      <c r="D730" s="3"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="C731" s="2"/>
-      <c r="D731" s="3"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="C732" s="2"/>
-      <c r="D732" s="3"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="C733" s="2"/>
-      <c r="D733" s="3"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="C734" s="2"/>
-      <c r="D734" s="3"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="C735" s="2"/>
-      <c r="D735" s="3"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="C736" s="2"/>
-      <c r="D736" s="3"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="C737" s="2"/>
-      <c r="D737" s="3"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="C738" s="2"/>
-      <c r="D738" s="3"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="C739" s="2"/>
-      <c r="D739" s="3"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="C740" s="2"/>
-      <c r="D740" s="3"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="C741" s="2"/>
-      <c r="D741" s="3"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="C742" s="2"/>
-      <c r="D742" s="3"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="C743" s="2"/>
-      <c r="D743" s="3"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="C744" s="2"/>
-      <c r="D744" s="3"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="C745" s="2"/>
-      <c r="D745" s="3"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="C746" s="2"/>
-      <c r="D746" s="3"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="C747" s="2"/>
-      <c r="D747" s="3"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="C748" s="2"/>
-      <c r="D748" s="3"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="C749" s="2"/>
-      <c r="D749" s="3"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="C750" s="2"/>
-      <c r="D750" s="3"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="C751" s="2"/>
-      <c r="D751" s="3"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="C752" s="2"/>
-      <c r="D752" s="3"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="C753" s="2"/>
-      <c r="D753" s="3"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="C754" s="2"/>
-      <c r="D754" s="3"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="C755" s="2"/>
-      <c r="D755" s="3"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="C756" s="2"/>
-      <c r="D756" s="3"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="C757" s="2"/>
-      <c r="D757" s="3"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="C758" s="2"/>
-      <c r="D758" s="3"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="C759" s="2"/>
-      <c r="D759" s="3"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="C760" s="2"/>
-      <c r="D760" s="3"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="C761" s="2"/>
-      <c r="D761" s="3"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="C762" s="2"/>
-      <c r="D762" s="3"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="C763" s="2"/>
-      <c r="D763" s="3"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="C764" s="2"/>
-      <c r="D764" s="3"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="C765" s="2"/>
-      <c r="D765" s="3"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="C766" s="2"/>
-      <c r="D766" s="3"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="C767" s="2"/>
-      <c r="D767" s="3"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="C768" s="2"/>
-      <c r="D768" s="3"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="C769" s="2"/>
-      <c r="D769" s="3"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="C770" s="2"/>
-      <c r="D770" s="3"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="C771" s="2"/>
-      <c r="D771" s="3"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="C772" s="2"/>
-      <c r="D772" s="3"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="C773" s="2"/>
-      <c r="D773" s="3"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="C774" s="2"/>
-      <c r="D774" s="3"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="C775" s="2"/>
-      <c r="D775" s="3"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="C776" s="2"/>
-      <c r="D776" s="3"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="C777" s="2"/>
-      <c r="D777" s="3"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="C778" s="2"/>
-      <c r="D778" s="3"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="C779" s="2"/>
-      <c r="D779" s="3"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="C780" s="2"/>
-      <c r="D780" s="3"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="C781" s="2"/>
-      <c r="D781" s="3"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="C782" s="2"/>
-      <c r="D782" s="3"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="C783" s="2"/>
-      <c r="D783" s="3"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="C784" s="2"/>
-      <c r="D784" s="3"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="C785" s="2"/>
-      <c r="D785" s="3"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="C786" s="2"/>
-      <c r="D786" s="3"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="C787" s="2"/>
-      <c r="D787" s="3"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
       <c r="C788" s="2"/>
-      <c r="D788" s="3"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="C789" s="2"/>
-      <c r="D789" s="3"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="C790" s="2"/>
-      <c r="D790" s="3"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="C791" s="2"/>
-      <c r="D791" s="3"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="C792" s="2"/>
-      <c r="D792" s="3"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="C793" s="2"/>
-      <c r="D793" s="3"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="C794" s="2"/>
-      <c r="D794" s="3"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="C795" s="2"/>
-      <c r="D795" s="3"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="C796" s="2"/>
-      <c r="D796" s="3"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
       <c r="C797" s="2"/>
-      <c r="D797" s="3"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="C798" s="2"/>
-      <c r="D798" s="3"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="C799" s="2"/>
-      <c r="D799" s="3"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="C800" s="2"/>
-      <c r="D800" s="3"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="C801" s="2"/>
-      <c r="D801" s="3"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="C802" s="2"/>
-      <c r="D802" s="3"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="C803" s="2"/>
-      <c r="D803" s="3"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="C804" s="2"/>
-      <c r="D804" s="3"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="C805" s="2"/>
-      <c r="D805" s="3"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="C806" s="2"/>
-      <c r="D806" s="3"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="C807" s="2"/>
-      <c r="D807" s="3"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="C808" s="2"/>
-      <c r="D808" s="3"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="C809" s="2"/>
-      <c r="D809" s="3"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="C810" s="2"/>
-      <c r="D810" s="3"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="C811" s="2"/>
-      <c r="D811" s="3"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="C812" s="2"/>
-      <c r="D812" s="3"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="C813" s="2"/>
-      <c r="D813" s="3"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="C814" s="2"/>
-      <c r="D814" s="3"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="C815" s="2"/>
-      <c r="D815" s="3"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="C816" s="2"/>
-      <c r="D816" s="3"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="C817" s="2"/>
-      <c r="D817" s="3"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="C818" s="2"/>
-      <c r="D818" s="3"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="C819" s="2"/>
-      <c r="D819" s="3"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="C820" s="2"/>
-      <c r="D820" s="3"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="C821" s="2"/>
-      <c r="D821" s="3"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="C822" s="2"/>
-      <c r="D822" s="3"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
       <c r="C823" s="2"/>
-      <c r="D823" s="3"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
       <c r="C824" s="2"/>
-      <c r="D824" s="3"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="C825" s="2"/>
-      <c r="D825" s="3"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="C826" s="2"/>
-      <c r="D826" s="3"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="C827" s="2"/>
-      <c r="D827" s="3"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="C828" s="2"/>
-      <c r="D828" s="3"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="C829" s="2"/>
-      <c r="D829" s="3"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="C830" s="2"/>
-      <c r="D830" s="3"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="C831" s="2"/>
-      <c r="D831" s="3"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="C832" s="2"/>
-      <c r="D832" s="3"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
       <c r="C833" s="2"/>
-      <c r="D833" s="3"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
       <c r="C834" s="2"/>
-      <c r="D834" s="3"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
       <c r="C835" s="2"/>
-      <c r="D835" s="3"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
       <c r="C836" s="2"/>
-      <c r="D836" s="3"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
       <c r="C837" s="2"/>
-      <c r="D837" s="3"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
       <c r="C838" s="2"/>
-      <c r="D838" s="3"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
       <c r="C839" s="2"/>
-      <c r="D839" s="3"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
       <c r="C840" s="2"/>
-      <c r="D840" s="3"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
       <c r="C841" s="2"/>
-      <c r="D841" s="3"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
       <c r="C842" s="2"/>
-      <c r="D842" s="3"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
       <c r="C843" s="2"/>
-      <c r="D843" s="3"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
       <c r="C844" s="2"/>
-      <c r="D844" s="3"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
       <c r="C845" s="2"/>
-      <c r="D845" s="3"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
       <c r="C846" s="2"/>
-      <c r="D846" s="3"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
       <c r="C847" s="2"/>
-      <c r="D847" s="3"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
       <c r="C848" s="2"/>
-      <c r="D848" s="3"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
       <c r="C849" s="2"/>
-      <c r="D849" s="3"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
       <c r="C850" s="2"/>
-      <c r="D850" s="3"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
       <c r="C851" s="2"/>
-      <c r="D851" s="3"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
       <c r="C852" s="2"/>
-      <c r="D852" s="3"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
       <c r="C853" s="2"/>
-      <c r="D853" s="3"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
       <c r="C854" s="2"/>
-      <c r="D854" s="3"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
       <c r="C855" s="2"/>
-      <c r="D855" s="3"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
       <c r="C856" s="2"/>
-      <c r="D856" s="3"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
       <c r="C857" s="2"/>
-      <c r="D857" s="3"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
       <c r="C858" s="2"/>
-      <c r="D858" s="3"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
       <c r="C859" s="2"/>
-      <c r="D859" s="3"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
       <c r="C860" s="2"/>
-      <c r="D860" s="3"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
       <c r="C861" s="2"/>
-      <c r="D861" s="3"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
       <c r="C862" s="2"/>
-      <c r="D862" s="3"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
       <c r="C863" s="2"/>
-      <c r="D863" s="3"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
       <c r="C864" s="2"/>
-      <c r="D864" s="3"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
       <c r="C865" s="2"/>
-      <c r="D865" s="3"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
       <c r="C866" s="2"/>
-      <c r="D866" s="3"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
       <c r="C867" s="2"/>
-      <c r="D867" s="3"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
       <c r="C868" s="2"/>
-      <c r="D868" s="3"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
       <c r="C869" s="2"/>
-      <c r="D869" s="3"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
       <c r="C870" s="2"/>
-      <c r="D870" s="3"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
       <c r="C871" s="2"/>
-      <c r="D871" s="3"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
       <c r="C872" s="2"/>
-      <c r="D872" s="3"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="C873" s="2"/>
-      <c r="D873" s="3"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="C874" s="2"/>
-      <c r="D874" s="3"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="C875" s="2"/>
-      <c r="D875" s="3"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="C876" s="2"/>
-      <c r="D876" s="3"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="C877" s="2"/>
-      <c r="D877" s="3"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="C878" s="2"/>
-      <c r="D878" s="3"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="C879" s="2"/>
-      <c r="D879" s="3"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="C880" s="2"/>
-      <c r="D880" s="3"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="C881" s="2"/>
-      <c r="D881" s="3"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="C882" s="2"/>
-      <c r="D882" s="3"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="C883" s="2"/>
-      <c r="D883" s="3"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="C884" s="2"/>
-      <c r="D884" s="3"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="C885" s="2"/>
-      <c r="D885" s="3"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="C886" s="2"/>
-      <c r="D886" s="3"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="C887" s="2"/>
-      <c r="D887" s="3"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="C888" s="2"/>
-      <c r="D888" s="3"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="C889" s="2"/>
-      <c r="D889" s="3"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="C890" s="2"/>
-      <c r="D890" s="3"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="C891" s="2"/>
-      <c r="D891" s="3"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="C892" s="2"/>
-      <c r="D892" s="3"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
       <c r="C893" s="2"/>
-      <c r="D893" s="3"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
       <c r="C894" s="2"/>
-      <c r="D894" s="3"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
       <c r="C895" s="2"/>
-      <c r="D895" s="3"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
       <c r="C896" s="2"/>
-      <c r="D896" s="3"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
       <c r="C897" s="2"/>
-      <c r="D897" s="3"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
       <c r="C898" s="2"/>
-      <c r="D898" s="3"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
       <c r="C899" s="2"/>
-      <c r="D899" s="3"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
       <c r="C900" s="2"/>
-      <c r="D900" s="3"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
       <c r="C901" s="2"/>
-      <c r="D901" s="3"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
       <c r="C902" s="2"/>
-      <c r="D902" s="3"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
       <c r="C903" s="2"/>
-      <c r="D903" s="3"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
       <c r="C904" s="2"/>
-      <c r="D904" s="3"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
       <c r="C905" s="2"/>
-      <c r="D905" s="3"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
       <c r="C906" s="2"/>
-      <c r="D906" s="3"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
       <c r="C907" s="2"/>
-      <c r="D907" s="3"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
       <c r="C908" s="2"/>
-      <c r="D908" s="3"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
       <c r="C909" s="2"/>
-      <c r="D909" s="3"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
       <c r="C910" s="2"/>
-      <c r="D910" s="3"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
       <c r="C911" s="2"/>
-      <c r="D911" s="3"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
       <c r="C912" s="2"/>
-      <c r="D912" s="3"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
       <c r="C913" s="2"/>
-      <c r="D913" s="3"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
       <c r="C914" s="2"/>
-      <c r="D914" s="3"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
       <c r="C915" s="2"/>
-      <c r="D915" s="3"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
       <c r="C916" s="2"/>
-      <c r="D916" s="3"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
       <c r="C917" s="2"/>
-      <c r="D917" s="3"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
       <c r="C918" s="2"/>
-      <c r="D918" s="3"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
       <c r="C919" s="2"/>
-      <c r="D919" s="3"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
       <c r="C920" s="2"/>
-      <c r="D920" s="3"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
       <c r="C921" s="2"/>
-      <c r="D921" s="3"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
       <c r="C922" s="2"/>
-      <c r="D922" s="3"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
       <c r="C923" s="2"/>
-      <c r="D923" s="3"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
       <c r="C924" s="2"/>
-      <c r="D924" s="3"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
       <c r="C925" s="2"/>
-      <c r="D925" s="3"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
       <c r="C926" s="2"/>
-      <c r="D926" s="3"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
       <c r="C927" s="2"/>
-      <c r="D927" s="3"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
       <c r="C928" s="2"/>
-      <c r="D928" s="3"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
       <c r="C929" s="2"/>
-      <c r="D929" s="3"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
       <c r="C930" s="2"/>
-      <c r="D930" s="3"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
       <c r="C931" s="2"/>
-      <c r="D931" s="3"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
       <c r="C932" s="2"/>
-      <c r="D932" s="3"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
       <c r="C933" s="2"/>
-      <c r="D933" s="3"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
       <c r="C934" s="2"/>
-      <c r="D934" s="3"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
       <c r="C935" s="2"/>
-      <c r="D935" s="3"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
       <c r="C936" s="2"/>
-      <c r="D936" s="3"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
       <c r="C937" s="2"/>
-      <c r="D937" s="3"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
       <c r="C938" s="2"/>
-      <c r="D938" s="3"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
       <c r="C939" s="2"/>
-      <c r="D939" s="3"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
       <c r="C940" s="2"/>
-      <c r="D940" s="3"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
       <c r="C941" s="2"/>
-      <c r="D941" s="3"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
       <c r="C942" s="2"/>
-      <c r="D942" s="3"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
       <c r="C943" s="2"/>
-      <c r="D943" s="3"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
       <c r="C944" s="2"/>
-      <c r="D944" s="3"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
       <c r="C945" s="2"/>
-      <c r="D945" s="3"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
       <c r="C946" s="2"/>
-      <c r="D946" s="3"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
       <c r="C947" s="2"/>
-      <c r="D947" s="3"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
       <c r="C948" s="2"/>
-      <c r="D948" s="3"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
       <c r="C949" s="2"/>
-      <c r="D949" s="3"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
       <c r="C950" s="2"/>
-      <c r="D950" s="3"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
       <c r="C951" s="2"/>
-      <c r="D951" s="3"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
       <c r="C952" s="2"/>
-      <c r="D952" s="3"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="C953" s="2"/>
-      <c r="D953" s="3"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
       <c r="C954" s="2"/>
-      <c r="D954" s="3"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
       <c r="C955" s="2"/>
-      <c r="D955" s="3"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
       <c r="C956" s="2"/>
-      <c r="D956" s="3"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
       <c r="C957" s="2"/>
-      <c r="D957" s="3"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="C958" s="2"/>
-      <c r="D958" s="3"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
       <c r="C959" s="2"/>
-      <c r="D959" s="3"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
       <c r="C960" s="2"/>
-      <c r="D960" s="3"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
       <c r="C961" s="2"/>
-      <c r="D961" s="3"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
       <c r="C962" s="2"/>
-      <c r="D962" s="3"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
       <c r="C963" s="2"/>
-      <c r="D963" s="3"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
       <c r="C964" s="2"/>
-      <c r="D964" s="3"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
       <c r="C965" s="2"/>
-      <c r="D965" s="3"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
       <c r="C966" s="2"/>
-      <c r="D966" s="3"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
       <c r="C967" s="2"/>
-      <c r="D967" s="3"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
       <c r="C968" s="2"/>
-      <c r="D968" s="3"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
       <c r="C969" s="2"/>
-      <c r="D969" s="3"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
       <c r="C970" s="2"/>
-      <c r="D970" s="3"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
       <c r="C971" s="2"/>
-      <c r="D971" s="3"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
       <c r="C972" s="2"/>
-      <c r="D972" s="3"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
       <c r="C973" s="2"/>
-      <c r="D973" s="3"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="C974" s="2"/>
-      <c r="D974" s="3"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
       <c r="C975" s="2"/>
-      <c r="D975" s="3"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
       <c r="C976" s="2"/>
-      <c r="D976" s="3"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
       <c r="C977" s="2"/>
-      <c r="D977" s="3"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
       <c r="C978" s="2"/>
-      <c r="D978" s="3"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
       <c r="C979" s="2"/>
-      <c r="D979" s="3"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
       <c r="C980" s="2"/>
-      <c r="D980" s="3"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
       <c r="C981" s="2"/>
-      <c r="D981" s="3"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
       <c r="C982" s="2"/>
-      <c r="D982" s="3"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
       <c r="C983" s="2"/>
-      <c r="D983" s="3"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
       <c r="C984" s="2"/>
-      <c r="D984" s="3"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
       <c r="C985" s="2"/>
-      <c r="D985" s="3"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
       <c r="C986" s="2"/>
-      <c r="D986" s="3"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
       <c r="C987" s="2"/>
-      <c r="D987" s="3"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
       <c r="C988" s="2"/>
-      <c r="D988" s="3"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
       <c r="C989" s="2"/>
-      <c r="D989" s="3"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
       <c r="C990" s="2"/>
-      <c r="D990" s="3"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
       <c r="C991" s="2"/>
-      <c r="D991" s="3"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="C992" s="2"/>
-      <c r="D992" s="3"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
       <c r="C993" s="2"/>
-      <c r="D993" s="3"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
       <c r="C994" s="2"/>
-      <c r="D994" s="3"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
       <c r="C995" s="2"/>
-      <c r="D995" s="3"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="C996" s="2"/>
-      <c r="D996" s="3"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="C997" s="2"/>
-      <c r="D997" s="3"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
       <c r="C998" s="2"/>
-      <c r="D998" s="3"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="C999" s="2"/>
-      <c r="D999" s="3"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
       <c r="C1000" s="2"/>
-      <c r="D1000" s="3"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,13 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2024/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64B64A-2FBA-E24B-858B-DC09486F8859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1000</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="BwFW4bL4422C6eH3PpBY0OA6l/hmgK8il2ApuNaLzxs="/>
     </ext>
@@ -16,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>number</t>
   </si>
@@ -114,9 +137,6 @@
     <t>Short Programming Project 6</t>
   </si>
   <si>
-    <t>Quiz 07</t>
-  </si>
-  <si>
     <t>Programming Project 6</t>
   </si>
   <si>
@@ -126,9 +146,6 @@
     <t>Short Programming Project 7</t>
   </si>
   <si>
-    <t>Quiz 08</t>
-  </si>
-  <si>
     <t>Programming Project 7</t>
   </si>
   <si>
@@ -144,9 +161,6 @@
     <t>Short Programming Project 8</t>
   </si>
   <si>
-    <t>Quiz 09</t>
-  </si>
-  <si>
     <t>Programming Project 8</t>
   </si>
   <si>
@@ -156,9 +170,6 @@
     <t>Short Programming Project 9</t>
   </si>
   <si>
-    <t>Quiz 10</t>
-  </si>
-  <si>
     <t>Programming Project 9</t>
   </si>
   <si>
@@ -168,9 +179,6 @@
     <t>Short Programming Project 10</t>
   </si>
   <si>
-    <t>Quiz 11</t>
-  </si>
-  <si>
     <t>Programming Project 10</t>
   </si>
   <si>
@@ -186,46 +194,61 @@
     <t>Short Programming Project 11</t>
   </si>
   <si>
-    <t>Quiz 12</t>
-  </si>
-  <si>
     <t>Programming Project 11</t>
   </si>
   <si>
     <t>Final Exam</t>
   </si>
   <si>
-    <t>ENR2 N120</t>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,39 +256,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -455,26 +487,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F994"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.44"/>
-    <col customWidth="1" min="2" max="2" width="29.11"/>
-    <col customWidth="1" min="3" max="3" width="10.78"/>
-    <col customWidth="1" min="4" max="26" width="10.56"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,3592 +522,3552 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45303</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>45301.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="2">
+        <v>45308</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45303.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45309</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45308.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <f t="shared" ref="A5:A45" si="0">A4+1</f>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>45309.0</v>
+        <v>45314</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>45314.0</v>
+        <v>45314</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>45314.0</v>
+        <v>45316</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>45315.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+        <v>45321</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>45316.0</v>
+        <v>45321</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>45321.0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <v>45322</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>45321.0</v>
+        <v>45323</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>45322.0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <v>45328</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>45323.0</v>
+        <v>45328</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>45328.0</v>
+        <v>45330</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>45328.0</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>45336</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45329.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>45330.0</v>
+        <v>45338</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>45336.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>45341</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>45338.0</v>
+        <v>45342</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>45338.0</v>
+        <v>45342</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>45341.0</v>
+        <v>45344</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
-        <v>45342.0</v>
+        <v>45349</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
-        <v>45342.0</v>
+        <v>45349</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="2">
-        <v>45343.0</v>
+        <v>45350</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2">
-        <v>45344.0</v>
+        <v>32</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45352</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>45349.0</v>
+        <v>45370</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
-        <v>45349.0</v>
+        <v>45370</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C28" s="2">
-        <v>45350.0</v>
+        <v>45371</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="4">
-        <v>45352.0</v>
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45372</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2">
-        <v>45370.0</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>45378</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
-        <v>45370.0</v>
+        <v>45379</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>45371.0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>45384</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2">
-        <v>45372.0</v>
+        <v>45384</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2">
-        <v>45378.0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>45386</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2">
-        <v>45379.0</v>
+        <v>45391</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2">
-        <v>45384.0</v>
+        <v>45391</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C37" s="2">
-        <v>45384.0</v>
-      </c>
-      <c r="D37" s="3" t="s">
+        <v>45392</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45393</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="2">
-        <v>45385.0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2">
-        <v>45386.0</v>
+        <v>45398</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2">
-        <v>45391.0</v>
+        <v>45398</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C41" s="2">
-        <v>45391.0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>45399</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41.0</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="2">
-        <v>45392.0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>45400</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42.0</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="2">
-        <v>45393.0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>45406</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43.0</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="2">
-        <v>45398.0</v>
+        <v>45407</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44.0</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="2">
-        <v>45398.0</v>
+        <v>45412</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45.0</v>
+        <f>A45+1</f>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="2">
-        <v>45399.0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>45412</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>46.0</v>
+        <f>A46+1</f>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="2">
-        <v>45400.0</v>
+        <v>45413</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47.0</v>
+        <f t="shared" ref="A48" si="1">A47+1</f>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="2">
-        <v>45406.0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="1" t="s">
+        <v>45415</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="2">
-        <v>45407.0</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="2">
-        <v>45412.0</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="2">
-        <v>45412.0</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="2">
-        <v>45413.0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="2">
-        <v>45413.0</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="2">
-        <v>45415.0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C255" s="2"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C256" s="2"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C257" s="2"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C258" s="2"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C259" s="2"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C260" s="2"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C261" s="2"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C262" s="2"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C263" s="2"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="2"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="2"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C266" s="2"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="2"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="2"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="2"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="2"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C271" s="2"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="2"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C273" s="2"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C274" s="2"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C275" s="2"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C276" s="2"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C277" s="2"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C278" s="2"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C279" s="2"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C280" s="2"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C281" s="2"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C282" s="2"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C283" s="2"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C284" s="2"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C285" s="2"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C286" s="2"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C287" s="2"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C288" s="2"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C289" s="2"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C290" s="2"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C291" s="2"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C292" s="2"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C293" s="2"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C294" s="2"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C295" s="2"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C296" s="2"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C297" s="2"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C298" s="2"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C299" s="2"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C300" s="2"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C301" s="2"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C302" s="2"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C303" s="2"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C304" s="2"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C305" s="2"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C306" s="2"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C307" s="2"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C308" s="2"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C309" s="2"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C310" s="2"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C311" s="2"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C312" s="2"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C313" s="2"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C314" s="2"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C315" s="2"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C316" s="2"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C317" s="2"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C318" s="2"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C319" s="2"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C320" s="2"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C321" s="2"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C322" s="2"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C323" s="2"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C324" s="2"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C325" s="2"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C326" s="2"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="2"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="2"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="2"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="2"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C331" s="2"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C332" s="2"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C333" s="2"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C334" s="2"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C335" s="2"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C336" s="2"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C337" s="2"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C338" s="2"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C339" s="2"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C340" s="2"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C341" s="2"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C342" s="2"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C343" s="2"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C344" s="2"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C345" s="2"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C346" s="2"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C347" s="2"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C348" s="2"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C349" s="2"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C350" s="2"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C351" s="2"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C352" s="2"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="2"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="2"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="2"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C356" s="2"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C357" s="2"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="2"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="2"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="2"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C361" s="2"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C362" s="2"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C363" s="2"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C364" s="2"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C365" s="2"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C366" s="2"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C367" s="2"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C368" s="2"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C369" s="2"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C370" s="2"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C371" s="2"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C372" s="2"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C373" s="2"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C374" s="2"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="2"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="2"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C377" s="2"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C378" s="2"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C379" s="2"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C380" s="2"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C381" s="2"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C382" s="2"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C383" s="2"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C384" s="2"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C385" s="2"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C386" s="2"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="2"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="2"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C389" s="2"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C390" s="2"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C391" s="2"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C392" s="2"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C393" s="2"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C394" s="2"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C395" s="2"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C396" s="2"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C397" s="2"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C398" s="2"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C399" s="2"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C400" s="2"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C401" s="2"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C402" s="2"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C403" s="2"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C404" s="2"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C405" s="2"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C406" s="2"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C407" s="2"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C408" s="2"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C409" s="2"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C410" s="2"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C411" s="2"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C412" s="2"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C413" s="2"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C414" s="2"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C415" s="2"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C416" s="2"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C417" s="2"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C418" s="2"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C419" s="2"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C420" s="2"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C421" s="2"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C422" s="2"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C423" s="2"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C424" s="2"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C425" s="2"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C426" s="2"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C427" s="2"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C428" s="2"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C429" s="2"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C430" s="2"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C431" s="2"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C432" s="2"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C433" s="2"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C434" s="2"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="2"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="2"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="2"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="2"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="2"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="2"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="2"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="2"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="2"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="2"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="2"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="2"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C447" s="2"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C448" s="2"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C449" s="2"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C450" s="2"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C451" s="2"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C452" s="2"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C453" s="2"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C454" s="2"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C455" s="2"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C456" s="2"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C457" s="2"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C458" s="2"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C459" s="2"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C460" s="2"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C461" s="2"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C462" s="2"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C463" s="2"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C464" s="2"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C465" s="2"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C466" s="2"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C467" s="2"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C468" s="2"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C469" s="2"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C470" s="2"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C471" s="2"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C472" s="2"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C473" s="2"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C474" s="2"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C475" s="2"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C476" s="2"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C477" s="2"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="2"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="2"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="2"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="2"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="2"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C483" s="2"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C484" s="2"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C485" s="2"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C486" s="2"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C487" s="2"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C488" s="2"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C489" s="2"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C490" s="2"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C491" s="2"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C492" s="2"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C493" s="2"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C494" s="2"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C495" s="2"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C496" s="2"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C497" s="2"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C498" s="2"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="2"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="2"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="2"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="2"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="2"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C504" s="2"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C505" s="2"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C506" s="2"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C507" s="2"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C508" s="2"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C509" s="2"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C510" s="2"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C511" s="2"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C512" s="2"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C513" s="2"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C514" s="2"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C515" s="2"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C516" s="2"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C517" s="2"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C518" s="2"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C519" s="2"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="2"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="2"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="2"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="2"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="2"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C525" s="2"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C526" s="2"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C527" s="2"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C528" s="2"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C529" s="2"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C530" s="2"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C531" s="2"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C532" s="2"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C533" s="2"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C534" s="2"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C535" s="2"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C536" s="2"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C537" s="2"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C538" s="2"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C539" s="2"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C540" s="2"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="2"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="2"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="2"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="2"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="2"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C546" s="2"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C547" s="2"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C548" s="2"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C549" s="2"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C550" s="2"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C551" s="2"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C552" s="2"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C553" s="2"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C554" s="2"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C555" s="2"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C556" s="2"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C557" s="2"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C558" s="2"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C559" s="2"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C560" s="2"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="2"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="2"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="2"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="2"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="2"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="2"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="2"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="2"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="2"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="2"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="2"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="2"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="2"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="2"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="2"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="2"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C577" s="2"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C578" s="2"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C579" s="2"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C580" s="2"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C581" s="2"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C582" s="2"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C583" s="2"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C584" s="2"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C585" s="2"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C586" s="2"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C587" s="2"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C588" s="2"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C589" s="2"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C590" s="2"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C591" s="2"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C592" s="2"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C593" s="2"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C594" s="2"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C595" s="2"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C596" s="2"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C597" s="2"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C598" s="2"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C599" s="2"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C600" s="2"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C601" s="2"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C602" s="2"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C603" s="2"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C604" s="2"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C605" s="2"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C606" s="2"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C607" s="2"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C608" s="2"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C609" s="2"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C610" s="2"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C611" s="2"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C612" s="2"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C613" s="2"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C614" s="2"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C615" s="2"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C616" s="2"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C617" s="2"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C618" s="2"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C619" s="2"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C620" s="2"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C621" s="2"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C622" s="2"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C623" s="2"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C624" s="2"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C625" s="2"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C626" s="2"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C627" s="2"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C628" s="2"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C629" s="2"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C630" s="2"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C631" s="2"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C632" s="2"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C633" s="2"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C634" s="2"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C635" s="2"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C636" s="2"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C637" s="2"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C638" s="2"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C639" s="2"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C640" s="2"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C641" s="2"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C642" s="2"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C643" s="2"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C644" s="2"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C645" s="2"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C646" s="2"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C647" s="2"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C648" s="2"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C649" s="2"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C650" s="2"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C651" s="2"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C652" s="2"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C653" s="2"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C654" s="2"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C655" s="2"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C656" s="2"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C657" s="2"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C658" s="2"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C659" s="2"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C660" s="2"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C661" s="2"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C662" s="2"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C663" s="2"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C664" s="2"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C665" s="2"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C666" s="2"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C667" s="2"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C668" s="2"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C669" s="2"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C670" s="2"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C671" s="2"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C672" s="2"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C673" s="2"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C674" s="2"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C675" s="2"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C676" s="2"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C677" s="2"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C678" s="2"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C679" s="2"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C680" s="2"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C681" s="2"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C682" s="2"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C683" s="2"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C684" s="2"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C685" s="2"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C686" s="2"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C687" s="2"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C688" s="2"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C689" s="2"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C690" s="2"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C691" s="2"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C692" s="2"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C693" s="2"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C694" s="2"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C695" s="2"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C696" s="2"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C697" s="2"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C698" s="2"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C699" s="2"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C700" s="2"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C701" s="2"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C702" s="2"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C703" s="2"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C704" s="2"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C705" s="2"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C706" s="2"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C707" s="2"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C708" s="2"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C709" s="2"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C710" s="2"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C711" s="2"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C712" s="2"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C713" s="2"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C714" s="2"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C715" s="2"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C716" s="2"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C717" s="2"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C718" s="2"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C719" s="2"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C720" s="2"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C721" s="2"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C722" s="2"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C723" s="2"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C724" s="2"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C725" s="2"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C726" s="2"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C727" s="2"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C728" s="2"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C729" s="2"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C730" s="2"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C731" s="2"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C732" s="2"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C733" s="2"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C734" s="2"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C735" s="2"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C736" s="2"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C737" s="2"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C738" s="2"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C739" s="2"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C740" s="2"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C741" s="2"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C742" s="2"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C743" s="2"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C744" s="2"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C745" s="2"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C746" s="2"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C747" s="2"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C748" s="2"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C749" s="2"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C750" s="2"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C751" s="2"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C752" s="2"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C753" s="2"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C754" s="2"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C755" s="2"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C756" s="2"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C757" s="2"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C758" s="2"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C759" s="2"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C760" s="2"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C761" s="2"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C762" s="2"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C763" s="2"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C764" s="2"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C765" s="2"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C766" s="2"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C767" s="2"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C768" s="2"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C769" s="2"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C770" s="2"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C771" s="2"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C772" s="2"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C773" s="2"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C774" s="2"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C775" s="2"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C776" s="2"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C777" s="2"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C778" s="2"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C779" s="2"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C780" s="2"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C781" s="2"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C782" s="2"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C783" s="2"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C784" s="2"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C785" s="2"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C786" s="2"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C787" s="2"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C788" s="2"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C789" s="2"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C790" s="2"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C791" s="2"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C792" s="2"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C793" s="2"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C794" s="2"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C795" s="2"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C796" s="2"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C797" s="2"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C798" s="2"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C799" s="2"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C800" s="2"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C801" s="2"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C802" s="2"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C803" s="2"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C804" s="2"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C805" s="2"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C806" s="2"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C807" s="2"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C808" s="2"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C809" s="2"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C810" s="2"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C811" s="2"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C812" s="2"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C813" s="2"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C814" s="2"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C815" s="2"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C816" s="2"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C817" s="2"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C818" s="2"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C819" s="2"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C820" s="2"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C821" s="2"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C822" s="2"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C823" s="2"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C824" s="2"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C825" s="2"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C826" s="2"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C827" s="2"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C828" s="2"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C829" s="2"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C830" s="2"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C831" s="2"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C832" s="2"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C833" s="2"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C834" s="2"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C835" s="2"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C836" s="2"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C837" s="2"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C838" s="2"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C839" s="2"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C840" s="2"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C841" s="2"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C842" s="2"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C843" s="2"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C844" s="2"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C845" s="2"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C846" s="2"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C847" s="2"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C848" s="2"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C849" s="2"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C850" s="2"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C851" s="2"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C852" s="2"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C853" s="2"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C854" s="2"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C855" s="2"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C856" s="2"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C857" s="2"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C858" s="2"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C859" s="2"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C860" s="2"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C861" s="2"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C862" s="2"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C863" s="2"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C864" s="2"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C865" s="2"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C866" s="2"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C867" s="2"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C868" s="2"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C869" s="2"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C870" s="2"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C871" s="2"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C872" s="2"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C873" s="2"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C874" s="2"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C875" s="2"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C876" s="2"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C877" s="2"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C878" s="2"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C879" s="2"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C880" s="2"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C881" s="2"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C882" s="2"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C883" s="2"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C884" s="2"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C885" s="2"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C886" s="2"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C887" s="2"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C888" s="2"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C889" s="2"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C890" s="2"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C891" s="2"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C892" s="2"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C893" s="2"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C894" s="2"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C895" s="2"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C896" s="2"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C897" s="2"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C898" s="2"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C899" s="2"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C900" s="2"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C901" s="2"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C902" s="2"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C903" s="2"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C904" s="2"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C905" s="2"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C906" s="2"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C907" s="2"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C908" s="2"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C909" s="2"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C910" s="2"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C911" s="2"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C912" s="2"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C913" s="2"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C914" s="2"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C915" s="2"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C916" s="2"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C917" s="2"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C918" s="2"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C919" s="2"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C920" s="2"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C921" s="2"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C922" s="2"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C923" s="2"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C924" s="2"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C925" s="2"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C926" s="2"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C927" s="2"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C928" s="2"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C929" s="2"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C930" s="2"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C931" s="2"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C932" s="2"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C933" s="2"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C934" s="2"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C935" s="2"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C936" s="2"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C937" s="2"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C938" s="2"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C939" s="2"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C940" s="2"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C941" s="2"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C942" s="2"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C943" s="2"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C944" s="2"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C945" s="2"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C946" s="2"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C947" s="2"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C948" s="2"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C949" s="2"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C950" s="2"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C951" s="2"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C952" s="2"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C953" s="2"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C954" s="2"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C955" s="2"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C956" s="2"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C957" s="2"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C958" s="2"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C959" s="2"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C960" s="2"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C961" s="2"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C962" s="2"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C963" s="2"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C964" s="2"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C965" s="2"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C966" s="2"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C967" s="2"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C968" s="2"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C969" s="2"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C970" s="2"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C971" s="2"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C972" s="2"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C973" s="2"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C974" s="2"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C975" s="2"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C976" s="2"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C977" s="2"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C978" s="2"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C979" s="2"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C980" s="2"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C981" s="2"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C982" s="2"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C983" s="2"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C984" s="2"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C985" s="2"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C986" s="2"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C987" s="2"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C988" s="2"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C989" s="2"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C990" s="2"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C991" s="2"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C992" s="2"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C993" s="2"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C994" s="2"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="C995" s="2"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="C996" s="2"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="C997" s="2"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="C998" s="2"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="C999" s="2"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="C1000" s="2"/>
-    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64B64A-2FBA-E24B-858B-DC09486F8859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7762B1-E88D-E143-8D45-902C9818EC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15900" yWindow="2820" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7762B1-E88D-E143-8D45-902C9818EC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60561E24-8947-B440-BD7E-240B334F4699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="2820" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7720" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,8 +207,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -249,6 +250,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,14 +273,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -541,7 +544,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2">
@@ -568,7 +571,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A45" si="0">A4+1</f>
+        <f t="shared" ref="A5:A48" si="0">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -646,7 +649,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
@@ -797,10 +800,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>45342</v>
+        <v>45349</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -812,10 +815,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45344</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45349</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -826,14 +829,14 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>45349</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
+        <v>45350</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -842,10 +845,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2">
-        <v>45349</v>
+        <v>29</v>
+      </c>
+      <c r="C23" s="7">
+        <v>45351</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -856,14 +859,14 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45350</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45363</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,8 +877,8 @@
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="4">
-        <v>45352</v>
+      <c r="C25" s="6">
+        <v>45365</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -917,7 +920,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2">
@@ -1053,7 +1056,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="2">
@@ -1113,7 +1116,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="2">
@@ -1185,7 +1188,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f>A45+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1200,7 +1203,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <f>A46+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1215,7 +1218,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <f t="shared" ref="A48" si="1">A47+1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1224,7 +1227,7 @@
       <c r="C48" s="2">
         <v>45415</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>53</v>
       </c>
     </row>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60561E24-8947-B440-BD7E-240B334F4699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD5AAD-AAB1-D540-9A55-4492DF6CD494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1001</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>number</t>
   </si>
@@ -200,7 +200,10 @@
     <t>Final Exam</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>ENR2 N120</t>
+  </si>
+  <si>
+    <t>Quiz 07</t>
   </si>
 </sst>
 </file>
@@ -211,11 +214,18 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,15 +283,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F994"/>
+  <dimension ref="A1:F995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -571,7 +582,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A48" si="0">A4+1</f>
+        <f t="shared" ref="A5:A49" si="0">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -874,16 +885,15 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="6">
-        <v>45365</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>45364</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -891,14 +901,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45370</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45365</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -906,7 +917,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
         <v>45370</v>
@@ -920,31 +931,31 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>16</v>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="2">
-        <v>45371</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>45370</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
+      <c r="B29" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C29" s="2">
-        <v>45372</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>45371</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -952,13 +963,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2">
-        <v>45378</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>45372</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -967,13 +978,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2">
-        <v>45379</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
+        <v>45378</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -982,10 +993,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
-        <v>45384</v>
+        <v>45379</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -997,7 +1008,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
         <v>45384</v>
@@ -1012,10 +1023,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2">
-        <v>45386</v>
+        <v>45384</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -1027,10 +1038,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2">
-        <v>45391</v>
+        <v>45386</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -1042,7 +1053,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2">
         <v>45391</v>
@@ -1056,14 +1067,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>20</v>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C37" s="2">
-        <v>45392</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>45391</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1071,14 +1082,14 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
+      <c r="B38" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C38" s="2">
-        <v>45393</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
+        <v>45392</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,10 +1098,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2">
-        <v>45398</v>
+        <v>45393</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
@@ -1102,7 +1113,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2">
         <v>45398</v>
@@ -1116,14 +1127,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>28</v>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="2">
-        <v>45399</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>45398</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1131,14 +1142,14 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>46</v>
+      <c r="B42" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="2">
-        <v>45400</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
+        <v>45399</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1147,13 +1158,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
-        <v>45406</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>45400</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,13 +1173,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2">
-        <v>45407</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>7</v>
+        <v>45406</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1177,10 +1188,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2">
-        <v>45412</v>
+        <v>45407</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>7</v>
@@ -1192,7 +1203,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2">
         <v>45412</v>
@@ -1207,10 +1218,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
@@ -1222,61 +1233,73 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45413</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="2">
         <v>45415</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4068,6 +4091,9 @@
     </row>
     <row r="994" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C994" s="2"/>
+    </row>
+    <row r="995" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C995" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD5AAD-AAB1-D540-9A55-4492DF6CD494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F26D495-7C3C-0F4F-9AF8-1529CD0BE57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,10 +200,10 @@
     <t>Final Exam</t>
   </si>
   <si>
-    <t>ENR2 N120</t>
-  </si>
-  <si>
     <t>Quiz 07</t>
+  </si>
+  <si>
+    <t>CESL 102 and 103</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2">
         <v>45399</v>
@@ -1254,7 +1254,7 @@
         <v>45415</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F26D495-7C3C-0F4F-9AF8-1529CD0BE57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A2C754-D189-D84E-976F-4B3C9F339024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="760" windowWidth="16500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1006</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>number</t>
   </si>
@@ -59,9 +60,6 @@
     <t>in class</t>
   </si>
   <si>
-    <t>Survey</t>
-  </si>
-  <si>
     <t>9pm</t>
   </si>
   <si>
@@ -203,7 +201,16 @@
     <t>Quiz 07</t>
   </si>
   <si>
-    <t>CESL 102 and 103</t>
+    <t>Quiz 08</t>
+  </si>
+  <si>
+    <t>Quiz 09</t>
+  </si>
+  <si>
+    <t>Quiz 10</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -214,7 +221,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,20 +254,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,15 +276,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -508,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F995"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -541,25 +532,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45538</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45303</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>45308</v>
+        <v>45539</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -567,104 +557,97 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>45309</v>
+        <v>45545</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A49" si="0">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>45314</v>
+        <v>45545</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>45314</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>45546</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>45316</v>
+        <v>45547</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>45321</v>
+        <v>45552</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>45321</v>
+        <v>45552</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>45322</v>
+        <v>45553</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -672,481 +655,448 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>45323</v>
+        <v>45554</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>45328</v>
+        <v>45562</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>45328</v>
+        <v>45562</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>45330</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>45563</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>45336</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>45565</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
-        <v>45338</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
+        <v>45567</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>45338</v>
+        <v>45569</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>45341</v>
+        <v>45569</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
-        <v>45342</v>
+        <v>45572</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>45349</v>
+        <v>45573</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6">
-        <v>45349</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45574</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>45350</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>45580</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="7">
-        <v>45351</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45580</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="6">
-        <v>45363</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45581</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6">
-        <v>45364</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45582</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6">
-        <v>45365</v>
+      <c r="C26" s="5">
+        <v>45587</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45370</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45587</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2">
-        <v>45370</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45588</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2">
-        <v>45371</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45589</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="2">
-        <v>45372</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
+        <v>45595</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="2">
-        <v>45378</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>45597</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2">
-        <v>45379</v>
+        <v>45597</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2">
-        <v>45384</v>
+        <v>45600</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2">
-        <v>45384</v>
+        <v>45601</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2">
-        <v>45386</v>
+        <v>45601</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
+      <c r="B36" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C36" s="2">
-        <v>45391</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>7</v>
+        <v>45602</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
-        <v>45391</v>
+        <v>45603</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>28</v>
+      <c r="B38" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C38" s="2">
-        <v>45392</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>45608</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>45393</v>
+        <v>45608</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>44</v>
+      <c r="B40" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C40" s="2">
-        <v>45398</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>7</v>
+        <v>45609</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>45</v>
+      <c r="B41" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C41" s="2">
-        <v>45398</v>
+        <v>45610</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>53</v>
+      <c r="B42" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C42" s="2">
-        <v>45399</v>
+        <v>45616</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
@@ -1154,122 +1104,140 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>45400</v>
+        <v>45618</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
+      <c r="B44" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>45406</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>5</v>
+        <v>45618</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
+      <c r="B45" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C45" s="2">
-        <v>45407</v>
+        <v>45621</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>49</v>
+      <c r="B46" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C46" s="2">
-        <v>45412</v>
+        <v>45622</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>50</v>
+      <c r="B47" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C47" s="2">
-        <v>45412</v>
+        <v>45622</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>51</v>
+      <c r="B48" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C48" s="2">
-        <v>45413</v>
+        <v>45628</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>52</v>
+      <c r="B49" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C49" s="2">
-        <v>45415</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>54</v>
+        <v>45629</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45630</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4095,8 +4063,31 @@
     <row r="995" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C995" s="2"/>
     </row>
+    <row r="996" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C996" s="2"/>
+    </row>
+    <row r="997" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C997" s="2"/>
+    </row>
+    <row r="998" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD56084C-EAB2-8040-8C84-78874A0F1388}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A2C754-D189-D84E-976F-4B3C9F339024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04208131-B927-8E43-9939-DC28F5A4EC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="760" windowWidth="16500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7760" yWindow="760" windowWidth="21880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>number</t>
   </si>
@@ -221,7 +221,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,14 +254,57 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,14 +319,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -528,7 +579,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -542,7 +593,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -556,7 +607,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -570,7 +621,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -584,7 +635,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -598,7 +649,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -612,7 +663,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -626,7 +677,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -640,7 +691,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -654,7 +705,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -668,119 +719,119 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45560</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45562</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>45562</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>45563</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>45562</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>45565</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
         <v>45567</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45569</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45568</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45569</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45572</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -794,7 +845,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -808,7 +859,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -822,7 +873,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -836,7 +887,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -850,7 +901,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -864,120 +915,121 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45588</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5">
-        <v>45587</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C27" s="5">
-        <v>45587</v>
+        <v>45590</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C28" s="5">
-        <v>45588</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>45590</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5">
-        <v>45589</v>
+        <v>45593</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="2">
-        <v>45595</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45594</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="2">
-        <v>45597</v>
+        <v>33</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45594</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2">
-        <v>45597</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
+      <c r="B32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45595</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="2">
-        <v>45600</v>
+      <c r="C33" s="5">
+        <v>45596</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -991,7 +1043,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1005,7 +1057,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1019,7 +1071,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1033,7 +1085,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1047,7 +1099,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1061,7 +1113,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1075,7 +1127,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1089,7 +1141,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1103,7 +1155,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1117,7 +1169,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -1131,7 +1183,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -1145,7 +1197,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -1159,7 +1211,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1173,7 +1225,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1187,7 +1239,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -1201,7 +1253,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -1221,8 +1273,8 @@
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>56</v>
+      <c r="C51" s="2">
+        <v>45639</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>56</v>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04208131-B927-8E43-9939-DC28F5A4EC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67479B7-E768-824B-82CB-48C667D97CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="760" windowWidth="21880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17800" yWindow="4320" windowWidth="22480" windowHeight="24480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1006</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1004</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>number</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Quiz 11</t>
   </si>
 </sst>
 </file>
@@ -263,48 +266,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -319,22 +286,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,53 +540,53 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45532</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>45538</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45539</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>45539</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45545</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>45545</v>
@@ -635,53 +596,53 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45545</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45546</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
-        <v>45546</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>45547</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45552</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>45552</v>
@@ -691,363 +652,363 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45552</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45553</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="2">
-        <v>45553</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45554</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45559</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45559</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45560</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45561</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C11" s="2">
-        <v>45554</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45567</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45569</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45569</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45572</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45573</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="C12" s="2">
-        <v>45560</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45562</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45562</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45565</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45566</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45566</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45567</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45568</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
         <v>45573</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45574</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2">
-        <v>45580</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="2">
+        <v>45574</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45575</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2">
         <v>45580</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45581</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2">
-        <v>45582</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="5">
-        <v>45588</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45580</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45581</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5">
-        <v>45590</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5">
-        <v>45590</v>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45582</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5">
-        <v>45593</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
+      <c r="B29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45588</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="5">
-        <v>45594</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45590</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4">
         <v>45594</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45594</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="4">
         <v>45595</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="4">
         <v>45596</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2">
-        <v>45601</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2">
         <v>45601</v>
@@ -1056,54 +1017,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>53</v>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="2">
+        <v>45601</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2">
         <v>45602</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>45603</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="2">
-        <v>45608</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>41</v>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C39" s="2">
         <v>45608</v>
@@ -1112,68 +1073,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>54</v>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C40" s="2">
+        <v>45608</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2">
         <v>45609</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>45610</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>45616</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="C43" s="2">
-        <v>45618</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
+      <c r="B44" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C44" s="2">
         <v>45618</v>
@@ -1182,40 +1143,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>45</v>
+      <c r="B45" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="2">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>47</v>
+      <c r="B46" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C46" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>49</v>
+      <c r="B47" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C47" s="2">
         <v>45622</v>
@@ -1224,75 +1185,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>50</v>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C48" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45630</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45631</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2">
-        <v>45629</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C51" s="2">
+        <v>45636</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="2">
-        <v>45630</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="C51" s="2">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2">
         <v>45639</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-    </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4121,9 +4092,12 @@
     <row r="997" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C997" s="2"/>
     </row>
-    <row r="998" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C998" s="2"/>
+    </row>
     <row r="999" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67479B7-E768-824B-82CB-48C667D97CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF67D90-C588-5D4E-BA5A-20D650948495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17800" yWindow="4320" windowWidth="22480" windowHeight="24480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,11 +224,18 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,15 +293,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -513,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1248,10 +1256,8 @@
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2">
-        <v>45639</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="9" t="s">
         <v>56</v>
       </c>
     </row>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF67D90-C588-5D4E-BA5A-20D650948495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB73E96-6B94-CE47-8772-C407DEF98B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="4320" windowWidth="22480" windowHeight="24480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15920" yWindow="500" windowWidth="22480" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1256,9 @@
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2">
+        <v>45639</v>
+      </c>
       <c r="D52" s="9" t="s">
         <v>56</v>
       </c>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB73E96-6B94-CE47-8772-C407DEF98B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D283F08-AD32-1349-AC56-747EF74A7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="500" windowWidth="22480" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="1080" windowWidth="22480" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1004</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1006</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>number</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Quiz 11</t>
+  </si>
+  <si>
+    <t>Quiz 12</t>
   </si>
 </sst>
 </file>
@@ -224,11 +227,18 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,15 +303,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -519,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1170,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="2">
-        <v>45618</v>
+        <v>45622</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1170,10 +1181,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -1183,14 +1194,14 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>47</v>
+      <c r="B47" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="2">
-        <v>45622</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>45630</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1198,10 +1209,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1211,14 +1222,14 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>57</v>
+      <c r="B49" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C49" s="2">
-        <v>45630</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>45636</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1226,10 +1237,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
@@ -1239,45 +1250,57 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>48</v>
+      <c r="B51" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C51" s="2">
-        <v>45636</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
+        <v>45637</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>45639</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4103,9 +4126,13 @@
     <row r="998" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C998" s="2"/>
     </row>
-    <row r="999" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C999" s="2"/>
+    </row>
     <row r="1000" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D283F08-AD32-1349-AC56-747EF74A7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4728FCC-88DE-7449-AD0C-20B897D1D2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12540" yWindow="1080" windowWidth="22480" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,13 +210,13 @@
     <t>Quiz 10</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Quiz 11</t>
   </si>
   <si>
     <t>Quiz 12</t>
+  </si>
+  <si>
+    <t>6pm S SCI 100</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:F1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1195,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2">
         <v>45630</v>
@@ -1251,7 +1251,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2">
         <v>45637</v>
@@ -1285,7 +1285,7 @@
         <v>45639</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4728FCC-88DE-7449-AD0C-20B897D1D2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5BD8E-5555-3145-8289-24604DF276C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="1080" windowWidth="22480" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27740" yWindow="2500" windowWidth="22480" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,18 +216,17 @@
     <t>Quiz 12</t>
   </si>
   <si>
-    <t>6pm S SCI 100</t>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +280,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,16 +316,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -530,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1003"/>
+  <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -562,11 +576,11 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>45532</v>
+        <v>45672</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -576,28 +590,28 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45679</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>45538</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="2">
+        <v>45680</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45539</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -608,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45545</v>
+        <v>45685</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -622,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>45545</v>
+        <v>45685</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -632,11 +646,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>45546</v>
+        <v>45686</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -650,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>45547</v>
+        <v>45687</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -664,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>45552</v>
+        <v>45692</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
@@ -678,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>45552</v>
+        <v>45692</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
@@ -688,11 +702,11 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>45553</v>
+        <v>45693</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -706,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>45554</v>
+        <v>45694</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>6</v>
@@ -716,13 +730,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>45559</v>
-      </c>
-      <c r="D13" s="7" t="s">
+        <v>45699</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -730,13 +744,13 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>45559</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>45699</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -744,13 +758,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>45560</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>45700</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -758,73 +772,73 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2">
-        <v>45561</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>45701</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>45567</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>45707</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>45569</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>45709</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>45569</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>45709</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="2">
-        <v>45572</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>45712</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -832,13 +846,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>45573</v>
+        <v>45713</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -846,27 +860,27 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>45573</v>
+        <v>45713</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="2">
-        <v>45574</v>
+        <v>45714</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -874,13 +888,13 @@
         <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>45575</v>
+        <v>45715</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -888,141 +902,140 @@
         <v>29</v>
       </c>
       <c r="C25" s="2">
-        <v>45580</v>
+        <v>45720</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="2">
-        <v>45580</v>
+        <v>45720</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="2">
-        <v>45581</v>
+        <v>45721</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="2">
-        <v>45582</v>
+        <v>45722</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4">
-        <v>45588</v>
+      <c r="B29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45735</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="4">
-        <v>45590</v>
+      <c r="C30" s="2">
+        <v>45737</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45742</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4">
-        <v>45594</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4">
-        <v>45594</v>
+      <c r="C32" s="2">
+        <v>45744</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33">
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="4">
-        <v>45595</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45744</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4">
-        <v>45596</v>
+      <c r="C34" s="2">
+        <v>45747</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1030,13 +1043,13 @@
         <v>37</v>
       </c>
       <c r="C35" s="2">
-        <v>45601</v>
+        <v>45748</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1044,27 +1057,27 @@
         <v>38</v>
       </c>
       <c r="C36" s="2">
-        <v>45601</v>
+        <v>45748</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="2">
-        <v>45602</v>
+        <v>45749</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1072,256 +1085,257 @@
         <v>39</v>
       </c>
       <c r="C38" s="2">
-        <v>45603</v>
+        <v>45750</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="2">
-        <v>45608</v>
+        <v>45755</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="2">
-        <v>45608</v>
+        <v>45755</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="2">
-        <v>45609</v>
+        <v>45756</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="2">
-        <v>45610</v>
+      <c r="C42" s="9">
+        <v>45757</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="2">
-        <v>45616</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="9">
+        <v>45762</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2">
-        <v>45618</v>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="9">
+        <v>45762</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2">
-        <v>45622</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="9">
+        <v>45763</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2">
-        <v>45622</v>
+      <c r="C46" s="9">
+        <v>45769</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="2">
-        <v>45630</v>
+      <c r="B47" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="9">
+        <v>45770</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="2">
-        <v>45631</v>
+      <c r="C48" s="9">
+        <v>45772</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2">
-        <v>45636</v>
+      <c r="C49" s="9">
+        <v>45776</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2">
-        <v>45636</v>
+      <c r="C50" s="9">
+        <v>45776</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="2">
-        <v>45637</v>
+      <c r="C51" s="9">
+        <v>45777</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2">
-        <v>45637</v>
+      <c r="C52" s="9">
+        <v>45779</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2">
-        <v>45639</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4151,4 +4165,10 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{37f4b8a2-ad4f-41b5-9a91-284d2cc38f56}" enabled="1" method="Standard" siteId="{70de1992-07c6-480f-a318-a1afcba03983}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5BD8E-5555-3145-8289-24604DF276C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2FB4A9-72E2-7348-B4F5-E83A6F9815DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27740" yWindow="2500" windowWidth="22480" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21700" yWindow="7420" windowWidth="22480" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>number</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Programming Project 11</t>
   </si>
   <si>
-    <t>Final Exam</t>
-  </si>
-  <si>
     <t>Quiz 07</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Final Exam 2pm Section</t>
+  </si>
+  <si>
+    <t>Final Exam 1pm Section</t>
   </si>
 </sst>
 </file>
@@ -226,11 +229,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,17 +326,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -546,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -927,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2">
         <v>45721</v>
@@ -955,7 +966,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2">
         <v>45735</v>
@@ -1068,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2">
         <v>45749</v>
@@ -1124,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2">
         <v>45756</v>
@@ -1181,7 +1192,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="9">
         <v>45763</v>
@@ -1267,7 +1278,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="9">
         <v>45777</v>
@@ -1294,17 +1305,29 @@
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="10"/>
+      <c r="B53" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="9">
+        <v>45786</v>
+      </c>
       <c r="D53" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="9">
+        <v>45789</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>

--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2FB4A9-72E2-7348-B4F5-E83A6F9815DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67756FE4-6780-9C42-B66D-F9F52E225781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21700" yWindow="7420" windowWidth="22480" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15920" yWindow="2720" windowWidth="22480" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,13 +213,13 @@
     <t>Quiz 12</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Final Exam 2pm Section</t>
   </si>
   <si>
     <t>Final Exam 1pm Section</t>
+  </si>
+  <si>
+    <t>1pm GITT 129B</t>
   </si>
 </sst>
 </file>
@@ -229,11 +229,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,17 +333,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -557,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1306,13 +1314,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="9">
         <v>45786</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>57</v>
+      <c r="D53" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1320,13 +1328,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="9">
         <v>45789</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>57</v>
+      <c r="D54" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
